--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>374432.6367136342</v>
+        <v>370860.9461434676</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2821214.707946066</v>
+        <v>2254375.78040961</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19391774.39632783</v>
+        <v>18836215.56344936</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5048240.514516009</v>
+        <v>5284282.784298905</v>
       </c>
     </row>
     <row r="11">
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="U2" t="n">
-        <v>44.21387696367704</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="W2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="X2" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>50.19740799690857</v>
+        <v>1.547657929861279</v>
       </c>
       <c r="H4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J4" t="n">
-        <v>24.40088325534112</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="H5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>43.55459982911465</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="7">
@@ -1066,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.19740799690857</v>
+        <v>1.547657929861279</v>
       </c>
       <c r="H7" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I7" t="n">
-        <v>24.40088325534111</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J7" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>43.55459982911462</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="10">
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1.547657929861279</v>
       </c>
       <c r="H10" t="n">
-        <v>9.626473537507769</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K10" t="n">
         <v>14.77440971783335</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.19740799690857</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="D11" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="12">
@@ -1446,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C12" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="13">
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.40088325534111</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.547657929861279</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1588,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="X14" t="n">
-        <v>44.21387696367704</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="15">
@@ -1683,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C15" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1737,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="16">
@@ -1780,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>9.626473537507769</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S16" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>16.32206764769463</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>114.7736570458744</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>54.19701966463789</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>54.19701966463789</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H18" t="n">
-        <v>54.19701966463789</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>47.73673492061303</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>16.32206764769463</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>54.19701966463789</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2087,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
-        <v>99.73835480560622</v>
+        <v>173.8630887158465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
@@ -2175,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>25.62786097985149</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>134.8834910641223</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2236,76 +2238,76 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,26 +2317,26 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="H23" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>41.43010407512111</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>74.63251893381549</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.55160515844523</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2524,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2612,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>274.2838073416025</v>
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>159.5028127661658</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>198.3825319082687</v>
@@ -2694,7 +2696,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>145.8355658494302</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2755,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>222.9651171964204</v>
-      </c>
-      <c r="U29" t="n">
-        <v>18.62406031006298</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>264.3952212715415</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.41812203587588</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -2934,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>136.4295738281299</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V31" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3038,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>35.70559250379693</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>123.8420026583338</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3825319082687</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -3199,19 +3201,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>75.29987199599611</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>18.62406031006286</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T35" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>178.9084591666628</v>
       </c>
       <c r="W35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,16 +3356,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,7 +3401,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>220.6009524411817</v>
+        <v>157.027592761046</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>5.521978971826058</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G38" t="n">
-        <v>41.43010407512099</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>20.07867728478316</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>188.9237307687901</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3664,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>31.93850246840919</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>270.2841956738732</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>121.8851214361018</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V41" t="n">
-        <v>238.0663195495475</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>270.2841956738732</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>270.2841956738732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,22 +3872,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
-        <v>173.4020378086662</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>31.43454529744082</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C44" t="n">
-        <v>50.19740799690857</v>
+        <v>240.929900371921</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
-        <v>50.19740799690857</v>
+        <v>25.73213560183936</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>24.40088325534112</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4177,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K2" t="n">
-        <v>53.71122655669217</v>
+        <v>51.80398302245153</v>
       </c>
       <c r="L2" t="n">
-        <v>103.4066604736316</v>
+        <v>105.459032490443</v>
       </c>
       <c r="M2" t="n">
-        <v>103.4066604736316</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="N2" t="n">
-        <v>103.4066604736316</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="O2" t="n">
-        <v>147.0752508385693</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P2" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q2" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R2" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S2" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T2" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="U2" t="n">
-        <v>156.1291502061423</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="V2" t="n">
-        <v>156.1291502061423</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="W2" t="n">
-        <v>105.4246976840124</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X2" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.72024516188256</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C3" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D3" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E3" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="F3" t="n">
-        <v>4.015792639752686</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="G3" t="n">
-        <v>4.015792639752686</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="H3" t="n">
-        <v>4.015792639752686</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="I3" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J3" t="n">
-        <v>11.40910348623759</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K3" t="n">
-        <v>51.70333023681584</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L3" t="n">
-        <v>51.70333023681584</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="M3" t="n">
-        <v>51.70333023681584</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="N3" t="n">
-        <v>51.70333023681584</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="O3" t="n">
-        <v>101.3987641537553</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="P3" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X3" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y3" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="F4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="G4" t="n">
-        <v>130.0720545075893</v>
+        <v>215.2247878203079</v>
       </c>
       <c r="H4" t="n">
-        <v>79.36760198545944</v>
+        <v>160.4803235125928</v>
       </c>
       <c r="I4" t="n">
-        <v>28.66314946332957</v>
+        <v>105.7358592048778</v>
       </c>
       <c r="J4" t="n">
-        <v>4.015792639752686</v>
+        <v>50.9913948971627</v>
       </c>
       <c r="K4" t="n">
-        <v>4.015792639752686</v>
+        <v>36.06774871753305</v>
       </c>
       <c r="L4" t="n">
-        <v>41.10231156647188</v>
+        <v>73.15426764425224</v>
       </c>
       <c r="M4" t="n">
-        <v>90.79774548341136</v>
+        <v>122.8497015611917</v>
       </c>
       <c r="N4" t="n">
-        <v>140.4931794003508</v>
+        <v>176.5047510291832</v>
       </c>
       <c r="O4" t="n">
-        <v>174.7157053500222</v>
+        <v>210.7272769788546</v>
       </c>
       <c r="P4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y4" t="n">
-        <v>180.7765070297192</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.0906341835704</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="C5" t="n">
-        <v>106.0906341835704</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="D5" t="n">
-        <v>106.0906341835704</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="E5" t="n">
-        <v>106.0906341835704</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="F5" t="n">
-        <v>106.0906341835704</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="G5" t="n">
-        <v>106.0906341835704</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="H5" t="n">
-        <v>55.38618166144055</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="I5" t="n">
-        <v>4.681729139310681</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J5" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K5" t="n">
-        <v>4.015792639752686</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L5" t="n">
-        <v>4.015792639752686</v>
+        <v>105.459032490443</v>
       </c>
       <c r="M5" t="n">
-        <v>53.71122655669217</v>
+        <v>105.459032490443</v>
       </c>
       <c r="N5" t="n">
-        <v>103.4066604736316</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1020943905711</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P5" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R5" t="n">
-        <v>156.7950867057003</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S5" t="n">
-        <v>156.7950867057003</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T5" t="n">
-        <v>156.7950867057003</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U5" t="n">
-        <v>156.7950867057003</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V5" t="n">
-        <v>156.7950867057003</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W5" t="n">
-        <v>156.7950867057003</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X5" t="n">
-        <v>156.7950867057003</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y5" t="n">
-        <v>106.0906341835704</v>
+        <v>162.0436143508365</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.015792639752686</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="C6" t="n">
-        <v>4.015792639752686</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="D6" t="n">
-        <v>4.015792639752686</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="E6" t="n">
-        <v>4.015792639752686</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="F6" t="n">
-        <v>4.015792639752686</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="G6" t="n">
-        <v>4.015792639752686</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="H6" t="n">
-        <v>4.015792639752686</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="I6" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J6" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K6" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L6" t="n">
-        <v>51.70333023681584</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="M6" t="n">
-        <v>101.3987641537553</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="N6" t="n">
-        <v>151.0941980706948</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="O6" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="P6" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R6" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S6" t="n">
-        <v>105.4246976840124</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T6" t="n">
-        <v>54.72024516188256</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U6" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V6" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W6" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X6" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.015792639752686</v>
+        <v>162.0436143508365</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="C7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="D7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="E7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="F7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="G7" t="n">
-        <v>130.0720545075893</v>
+        <v>183.4928006759458</v>
       </c>
       <c r="H7" t="n">
-        <v>79.36760198545944</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="I7" t="n">
-        <v>54.72024516188256</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="J7" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K7" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L7" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M7" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N7" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O7" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="R7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="S7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="T7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="U7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="V7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="W7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="X7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Y7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150.0851794655044</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="C8" t="n">
-        <v>150.0851794655044</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="D8" t="n">
-        <v>150.0851794655044</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="E8" t="n">
-        <v>150.0851794655044</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="F8" t="n">
-        <v>150.0851794655044</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="G8" t="n">
-        <v>106.0906341835704</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="H8" t="n">
-        <v>55.38618166144055</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="I8" t="n">
-        <v>4.681729139310681</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K8" t="n">
-        <v>53.71122655669217</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L8" t="n">
-        <v>103.4066604736316</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="M8" t="n">
-        <v>147.0752508385693</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="N8" t="n">
-        <v>147.0752508385693</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="O8" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="P8" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R8" t="n">
-        <v>200.7896319876343</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="S8" t="n">
-        <v>200.7896319876343</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="T8" t="n">
-        <v>200.7896319876343</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="U8" t="n">
-        <v>150.0851794655044</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="V8" t="n">
-        <v>150.0851794655044</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="W8" t="n">
-        <v>150.0851794655044</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="X8" t="n">
-        <v>150.0851794655044</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="Y8" t="n">
-        <v>150.0851794655044</v>
+        <v>59.74616238044408</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C9" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D9" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E9" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F9" t="n">
-        <v>150.0851794655044</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G9" t="n">
-        <v>99.38072694337451</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H9" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I9" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J9" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K9" t="n">
-        <v>51.70333023681584</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="L9" t="n">
-        <v>51.70333023681584</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="M9" t="n">
-        <v>101.3987641537553</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="N9" t="n">
-        <v>101.3987641537553</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="O9" t="n">
-        <v>151.0941980706948</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="P9" t="n">
-        <v>200.7896319876343</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R9" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S9" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T9" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U9" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V9" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="W9" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="X9" t="n">
-        <v>200.7896319876343</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="Y9" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="C10" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="D10" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="E10" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="F10" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="G10" t="n">
-        <v>130.0720545075893</v>
+        <v>183.4928006759458</v>
       </c>
       <c r="H10" t="n">
-        <v>120.3483438636421</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="I10" t="n">
-        <v>69.6438913415122</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="J10" t="n">
-        <v>18.93943881938233</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L10" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M10" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N10" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O10" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P10" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="R10" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="S10" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="T10" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="U10" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="V10" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="W10" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="X10" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Y10" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.72024516188256</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="C11" t="n">
-        <v>54.72024516188256</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="D11" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E11" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F11" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G11" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H11" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I11" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J11" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K11" t="n">
-        <v>47.68438300469032</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L11" t="n">
-        <v>97.3798169216298</v>
+        <v>105.459032490443</v>
       </c>
       <c r="M11" t="n">
-        <v>147.0752508385693</v>
+        <v>105.459032490443</v>
       </c>
       <c r="N11" t="n">
-        <v>196.7706847555088</v>
+        <v>105.459032490443</v>
       </c>
       <c r="O11" t="n">
-        <v>196.7706847555088</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P11" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R11" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S11" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T11" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U11" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V11" t="n">
-        <v>105.4246976840124</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W11" t="n">
-        <v>105.4246976840124</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X11" t="n">
-        <v>105.4246976840124</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y11" t="n">
-        <v>105.4246976840124</v>
+        <v>162.0436143508365</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>105.4246976840124</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="C12" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="D12" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E12" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F12" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G12" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H12" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I12" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J12" t="n">
-        <v>4.015792639752686</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K12" t="n">
-        <v>4.015792639752686</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="L12" t="n">
-        <v>4.015792639752686</v>
+        <v>119.039171355639</v>
       </c>
       <c r="M12" t="n">
-        <v>53.71122655669217</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="N12" t="n">
-        <v>103.4066604736316</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="O12" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R12" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S12" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T12" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U12" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V12" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W12" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X12" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y12" t="n">
-        <v>156.1291502061423</v>
+        <v>162.0436143508365</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.72024516188256</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="C13" t="n">
-        <v>54.72024516188256</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="D13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="E13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="F13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="G13" t="n">
-        <v>4.015792639752686</v>
+        <v>183.4928006759458</v>
       </c>
       <c r="H13" t="n">
-        <v>4.015792639752686</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="I13" t="n">
-        <v>4.015792639752686</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="J13" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K13" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L13" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M13" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N13" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O13" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P13" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q13" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="R13" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="S13" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="T13" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="U13" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="V13" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="W13" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="X13" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>105.4246976840124</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C14" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D14" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E14" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F14" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G14" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H14" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I14" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J14" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K14" t="n">
-        <v>4.015792639752686</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L14" t="n">
-        <v>4.015792639752686</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="M14" t="n">
-        <v>47.68438300469032</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="N14" t="n">
-        <v>97.3798169216298</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="O14" t="n">
-        <v>147.0752508385693</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="P14" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W14" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="X14" t="n">
-        <v>156.1291502061423</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="Y14" t="n">
-        <v>105.4246976840124</v>
+        <v>59.08022588088608</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.38072694337451</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C15" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L15" t="n">
-        <v>53.71122655669217</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="M15" t="n">
-        <v>103.4066604736316</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="N15" t="n">
-        <v>151.0941980706948</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="O15" t="n">
-        <v>200.7896319876343</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7896319876343</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R15" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S15" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T15" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U15" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V15" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W15" t="n">
-        <v>99.38072694337451</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="X15" t="n">
-        <v>99.38072694337451</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="Y15" t="n">
-        <v>99.38072694337451</v>
+        <v>59.08022588088608</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C16" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D16" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E16" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F16" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H16" t="n">
-        <v>120.3483438636421</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I16" t="n">
-        <v>69.6438913415122</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J16" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K16" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L16" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M16" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N16" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O16" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P16" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q16" t="n">
-        <v>180.7765070297192</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R16" t="n">
-        <v>180.7765070297192</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="S16" t="n">
-        <v>130.0720545075893</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="T16" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="U16" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="V16" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W16" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X16" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>113.8246901886011</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C17" t="n">
-        <v>113.8246901886011</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D17" t="n">
-        <v>113.8246901886011</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E17" t="n">
-        <v>113.8246901886011</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F17" t="n">
-        <v>113.8246901886011</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G17" t="n">
-        <v>113.8246901886011</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H17" t="n">
-        <v>59.08022588088608</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K17" t="n">
-        <v>4.335761573171031</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L17" t="n">
-        <v>57.99081104116254</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M17" t="n">
-        <v>111.6458605091541</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N17" t="n">
-        <v>159.1140819584346</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O17" t="n">
-        <v>212.7691314264261</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P17" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S17" t="n">
-        <v>162.0436143508365</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T17" t="n">
-        <v>162.0436143508365</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U17" t="n">
-        <v>113.8246901886011</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V17" t="n">
-        <v>113.8246901886011</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W17" t="n">
-        <v>113.8246901886011</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X17" t="n">
-        <v>113.8246901886011</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y17" t="n">
-        <v>113.8246901886011</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>216.7880786585516</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C18" t="n">
-        <v>216.7880786585516</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D18" t="n">
-        <v>216.7880786585516</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E18" t="n">
-        <v>216.7880786585516</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F18" t="n">
-        <v>162.0436143508365</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G18" t="n">
-        <v>107.2991500431215</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H18" t="n">
-        <v>52.55468573540642</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>4.335761573171031</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K18" t="n">
-        <v>4.335761573171031</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L18" t="n">
-        <v>57.99081104116254</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M18" t="n">
-        <v>109.4779797225685</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N18" t="n">
-        <v>163.1330291905601</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O18" t="n">
-        <v>216.7880786585516</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P18" t="n">
-        <v>216.7880786585516</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q18" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R18" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S18" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T18" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U18" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V18" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W18" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X18" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y18" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.8226985910444</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L19" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M19" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N19" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O19" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P19" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q19" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R19" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U19" t="n">
-        <v>75.56716289875945</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V19" t="n">
-        <v>20.8226985910444</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W19" t="n">
-        <v>20.8226985910444</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X19" t="n">
-        <v>20.8226985910444</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.8226985910444</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>853.1057571376389</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="C20" t="n">
-        <v>853.1057571376389</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="D20" t="n">
-        <v>853.1057571376389</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="E20" t="n">
-        <v>576.0514062875353</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="F20" t="n">
-        <v>298.9970554374318</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="G20" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="H20" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="I20" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J20" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K20" t="n">
         <v>143.241092649432</v>
@@ -5777,25 +5779,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S20" t="n">
-        <v>853.1057571376389</v>
+        <v>778.2322885414366</v>
       </c>
       <c r="T20" t="n">
-        <v>853.1057571376389</v>
+        <v>553.0149984440422</v>
       </c>
       <c r="U20" t="n">
-        <v>853.1057571376389</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="V20" t="n">
-        <v>853.1057571376389</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="W20" t="n">
-        <v>853.1057571376389</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="X20" t="n">
-        <v>853.1057571376389</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="Y20" t="n">
-        <v>853.1057571376389</v>
+        <v>21.94270458732819</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>327.1405402255297</v>
+        <v>205.4389618469498</v>
       </c>
       <c r="C21" t="n">
-        <v>327.1405402255297</v>
+        <v>205.4389618469498</v>
       </c>
       <c r="D21" t="n">
-        <v>179.5522335844735</v>
+        <v>205.4389618469498</v>
       </c>
       <c r="E21" t="n">
-        <v>21.9427045873282</v>
+        <v>47.82943284980445</v>
       </c>
       <c r="F21" t="n">
-        <v>21.9427045873282</v>
+        <v>47.82943284980445</v>
       </c>
       <c r="G21" t="n">
-        <v>21.9427045873282</v>
+        <v>47.82943284980445</v>
       </c>
       <c r="H21" t="n">
         <v>21.9427045873282</v>
@@ -5832,49 +5834,49 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K21" t="n">
-        <v>168.577974491964</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L21" t="n">
-        <v>416.655578933882</v>
+        <v>87.60320201771924</v>
       </c>
       <c r="M21" t="n">
-        <v>688.1965482020685</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N21" t="n">
-        <v>959.7375174702549</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O21" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P21" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q21" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R21" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S21" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T21" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U21" t="n">
-        <v>494.1830913470901</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V21" t="n">
-        <v>494.1830913470901</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="W21" t="n">
-        <v>494.1830913470901</v>
+        <v>617.6942962177218</v>
       </c>
       <c r="X21" t="n">
-        <v>494.1830913470901</v>
+        <v>411.1673976232993</v>
       </c>
       <c r="Y21" t="n">
-        <v>494.1830913470901</v>
+        <v>205.4389618469498</v>
       </c>
     </row>
     <row r="22">
@@ -5953,7 +5955,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="C23" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D23" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E23" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="F23" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="G23" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H23" t="n">
         <v>21.9427045873282</v>
@@ -5993,19 +5995,19 @@
         <v>143.241092649432</v>
       </c>
       <c r="L23" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623911</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P23" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q23" t="n">
         <v>1097.13522936641</v>
@@ -6014,25 +6016,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S23" t="n">
-        <v>1055.28663939154</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T23" t="n">
-        <v>830.0693492941459</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U23" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V23" t="n">
-        <v>576.0514062875353</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="W23" t="n">
-        <v>576.0514062875353</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="X23" t="n">
-        <v>298.9970554374318</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.9970554374318</v>
+        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>684.8798949956379</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C24" t="n">
-        <v>609.4935122342081</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D24" t="n">
-        <v>461.9052055931519</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E24" t="n">
-        <v>304.2956765960066</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F24" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G24" t="n">
         <v>21.9427045873282</v>
@@ -6072,46 +6074,46 @@
         <v>168.577974491964</v>
       </c>
       <c r="L24" t="n">
-        <v>416.655578933882</v>
+        <v>286.1736718527163</v>
       </c>
       <c r="M24" t="n">
-        <v>688.1965482020685</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N24" t="n">
-        <v>959.7375174702549</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O24" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P24" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q24" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R24" t="n">
-        <v>1097.13522936641</v>
+        <v>1073.345729206364</v>
       </c>
       <c r="S24" t="n">
-        <v>1097.13522936641</v>
+        <v>902.6774323319759</v>
       </c>
       <c r="T24" t="n">
-        <v>1097.13522936641</v>
+        <v>902.6774323319759</v>
       </c>
       <c r="U24" t="n">
-        <v>1097.13522936641</v>
+        <v>675.7509908499544</v>
       </c>
       <c r="V24" t="n">
-        <v>1097.13522936641</v>
+        <v>441.4997473755553</v>
       </c>
       <c r="W24" t="n">
-        <v>1097.13522936641</v>
+        <v>188.9852557088886</v>
       </c>
       <c r="X24" t="n">
-        <v>890.6083307719874</v>
+        <v>188.9852557088886</v>
       </c>
       <c r="Y24" t="n">
-        <v>684.8798949956379</v>
+        <v>188.9852557088886</v>
       </c>
     </row>
     <row r="25">
@@ -6172,16 +6174,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W25" t="n">
         <v>21.9427045873282</v>
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="C26" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="D26" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="E26" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="F26" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="G26" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="H26" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="I26" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J26" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K26" t="n">
         <v>143.241092649432</v>
@@ -6260,16 +6262,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V26" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W26" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X26" t="n">
-        <v>298.9970554374318</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y26" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.9427045873282</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="C27" t="n">
         <v>21.9427045873282</v>
@@ -6303,52 +6305,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K27" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L27" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M27" t="n">
-        <v>476.5364731046047</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N27" t="n">
-        <v>748.0774423727912</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O27" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P27" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q27" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R27" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S27" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T27" t="n">
-        <v>630.4290419169106</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U27" t="n">
-        <v>403.5026004348891</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V27" t="n">
-        <v>169.25135696049</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W27" t="n">
-        <v>21.9427045873282</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="X27" t="n">
-        <v>21.9427045873282</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="Y27" t="n">
-        <v>21.9427045873282</v>
+        <v>183.0566568763846</v>
       </c>
     </row>
     <row r="28">
@@ -6403,10 +6405,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q28" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S28" t="n">
         <v>21.9427045873282</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>853.1057571376389</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C29" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D29" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E29" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F29" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G29" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H29" t="n">
         <v>21.9427045873282</v>
@@ -6491,22 +6493,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T29" t="n">
-        <v>871.9179392690156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U29" t="n">
-        <v>853.1057571376389</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="V29" t="n">
-        <v>853.1057571376389</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="W29" t="n">
-        <v>853.1057571376389</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="X29" t="n">
-        <v>853.1057571376389</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="Y29" t="n">
-        <v>853.1057571376389</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>169.5310112283843</v>
+        <v>352.3053486626563</v>
       </c>
       <c r="C30" t="n">
-        <v>169.5310112283843</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="D30" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E30" t="n">
         <v>21.9427045873282</v>
@@ -6543,49 +6545,49 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K30" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L30" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M30" t="n">
-        <v>548.9545891439176</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N30" t="n">
-        <v>820.4955584121041</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O30" t="n">
-        <v>1088.375177389425</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P30" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q30" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1001.763388926131</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S30" t="n">
-        <v>831.095092051743</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T30" t="n">
-        <v>630.7086961848049</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U30" t="n">
-        <v>403.7822547027835</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V30" t="n">
-        <v>169.5310112283843</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="W30" t="n">
-        <v>169.5310112283843</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="X30" t="n">
-        <v>169.5310112283843</v>
+        <v>725.0763355605663</v>
       </c>
       <c r="Y30" t="n">
-        <v>169.5310112283843</v>
+        <v>519.3478997842168</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L31" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M31" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N31" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O31" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="C32" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D32" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E32" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="F32" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="G32" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H32" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I32" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J32" t="n">
         <v>21.9427045873282</v>
@@ -6731,19 +6733,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U32" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V32" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W32" t="n">
-        <v>576.0514062875353</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X32" t="n">
-        <v>298.9970554374318</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="Y32" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>801.0973387912989</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C33" t="n">
-        <v>628.344223713116</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D33" t="n">
-        <v>628.344223713116</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E33" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G33" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H33" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I33" t="n">
         <v>21.9427045873282</v>
@@ -6783,46 +6785,46 @@
         <v>161.1846636454791</v>
       </c>
       <c r="L33" t="n">
-        <v>204.9955038364183</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M33" t="n">
-        <v>476.5364731046047</v>
+        <v>432.7256329136656</v>
       </c>
       <c r="N33" t="n">
-        <v>748.0774423727912</v>
+        <v>704.266602181852</v>
       </c>
       <c r="O33" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P33" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R33" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S33" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T33" t="n">
-        <v>801.0973387912989</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="U33" t="n">
-        <v>801.0973387912989</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V33" t="n">
-        <v>801.0973387912989</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W33" t="n">
-        <v>801.0973387912989</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X33" t="n">
-        <v>801.0973387912989</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y33" t="n">
-        <v>801.0973387912989</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G34" t="n">
-        <v>1021.074752602777</v>
+        <v>33.07759116460122</v>
       </c>
       <c r="H34" t="n">
-        <v>1021.074752602777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I34" t="n">
-        <v>1021.074752602777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J34" t="n">
-        <v>931.338545605021</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L34" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M34" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O34" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="C35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="D35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="E35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="F35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="G35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I35" t="n">
         <v>21.9427045873282</v>
@@ -6962,25 +6964,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S35" t="n">
-        <v>1078.323047235033</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T35" t="n">
-        <v>853.1057571376389</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U35" t="n">
-        <v>853.1057571376389</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="V35" t="n">
-        <v>853.1057571376389</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="W35" t="n">
-        <v>576.0514062875353</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="X35" t="n">
-        <v>576.0514062875353</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.9970554374318</v>
+        <v>229.2399852622009</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>503.251291735001</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C36" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D36" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E36" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G36" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H36" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I36" t="n">
         <v>21.9427045873282</v>
@@ -7023,13 +7025,13 @@
         <v>416.655578933882</v>
       </c>
       <c r="M36" t="n">
-        <v>416.655578933882</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N36" t="n">
-        <v>630.6851405540922</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O36" t="n">
-        <v>898.564759531413</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P36" t="n">
         <v>1097.13522936641</v>
@@ -7047,19 +7049,19 @@
         <v>726.0805366250836</v>
       </c>
       <c r="U36" t="n">
-        <v>503.251291735001</v>
+        <v>567.466806563421</v>
       </c>
       <c r="V36" t="n">
-        <v>503.251291735001</v>
+        <v>567.466806563421</v>
       </c>
       <c r="W36" t="n">
-        <v>503.251291735001</v>
+        <v>567.466806563421</v>
       </c>
       <c r="X36" t="n">
-        <v>503.251291735001</v>
+        <v>567.466806563421</v>
       </c>
       <c r="Y36" t="n">
-        <v>503.251291735001</v>
+        <v>361.7383707870715</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L37" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M37" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N37" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O37" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R37" t="n">
-        <v>27.52046112452624</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S37" t="n">
-        <v>27.52046112452624</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>340.8456454123015</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C38" t="n">
-        <v>340.8456454123015</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D38" t="n">
-        <v>340.8456454123015</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="E38" t="n">
-        <v>340.8456454123015</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F38" t="n">
-        <v>340.8456454123015</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G38" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H38" t="n">
         <v>21.9427045873282</v>
@@ -7202,22 +7204,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T38" t="n">
-        <v>871.9179392690156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U38" t="n">
-        <v>617.899996262405</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V38" t="n">
-        <v>617.899996262405</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W38" t="n">
-        <v>617.899996262405</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X38" t="n">
-        <v>617.899996262405</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y38" t="n">
-        <v>340.8456454123015</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>981.2022424513852</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C39" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D39" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E39" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H39" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I39" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J39" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K39" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L39" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M39" t="n">
-        <v>630.6851405540922</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N39" t="n">
         <v>630.6851405540922</v>
@@ -7275,28 +7277,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>981.2022424513852</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T39" t="n">
-        <v>981.2022424513852</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="U39" t="n">
-        <v>981.2022424513852</v>
+        <v>699.5404910100002</v>
       </c>
       <c r="V39" t="n">
-        <v>981.2022424513852</v>
+        <v>465.2892475356011</v>
       </c>
       <c r="W39" t="n">
-        <v>981.2022424513852</v>
+        <v>212.7747558689344</v>
       </c>
       <c r="X39" t="n">
-        <v>981.2022424513852</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y39" t="n">
-        <v>981.2022424513852</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C40" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D40" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="E40" t="n">
         <v>21.9427045873282</v>
@@ -7363,19 +7365,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U40" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V40" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W40" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X40" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>21.62273565390985</v>
+        <v>422.7792762158805</v>
       </c>
       <c r="C41" t="n">
-        <v>21.62273565390985</v>
+        <v>422.7792762158805</v>
       </c>
       <c r="D41" t="n">
-        <v>21.62273565390985</v>
+        <v>422.7792762158805</v>
       </c>
       <c r="E41" t="n">
-        <v>21.62273565390985</v>
+        <v>422.7792762158805</v>
       </c>
       <c r="F41" t="n">
-        <v>21.62273565390985</v>
+        <v>299.6629919369897</v>
       </c>
       <c r="G41" t="n">
-        <v>21.62273565390985</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H41" t="n">
-        <v>21.62273565390985</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I41" t="n">
-        <v>21.62273565390985</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J41" t="n">
-        <v>21.62273565390985</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K41" t="n">
-        <v>142.9211237160136</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L41" t="n">
-        <v>345.3715781673772</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M41" t="n">
-        <v>585.8490106289726</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N41" t="n">
-        <v>814.7004443669421</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O41" t="n">
-        <v>984.6700124202815</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P41" t="n">
-        <v>1081.136782695493</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q41" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R41" t="n">
-        <v>1081.136782695493</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S41" t="n">
-        <v>1081.136782695493</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T41" t="n">
-        <v>1081.136782695493</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U41" t="n">
-        <v>1081.136782695493</v>
+        <v>699.833627065984</v>
       </c>
       <c r="V41" t="n">
-        <v>840.6657528474649</v>
+        <v>422.7792762158805</v>
       </c>
       <c r="W41" t="n">
-        <v>840.6657528474649</v>
+        <v>422.7792762158805</v>
       </c>
       <c r="X41" t="n">
-        <v>567.6514137829465</v>
+        <v>422.7792762158805</v>
       </c>
       <c r="Y41" t="n">
-        <v>294.6370747184282</v>
+        <v>422.7792762158805</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21.62273565390985</v>
+        <v>282.0731362973006</v>
       </c>
       <c r="C42" t="n">
-        <v>21.62273565390985</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="D42" t="n">
-        <v>21.62273565390985</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="E42" t="n">
-        <v>21.62273565390985</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F42" t="n">
-        <v>21.62273565390985</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G42" t="n">
-        <v>21.62273565390985</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H42" t="n">
-        <v>21.62273565390985</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>29.01604650039475</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K42" t="n">
-        <v>29.01604650039475</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L42" t="n">
-        <v>277.0936509423128</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="M42" t="n">
-        <v>544.6750046594473</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N42" t="n">
-        <v>812.2563583765817</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O42" t="n">
-        <v>999.9586146791947</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P42" t="n">
-        <v>999.9586146791947</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q42" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R42" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S42" t="n">
-        <v>910.4684858211044</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T42" t="n">
-        <v>735.3149122769971</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U42" t="n">
-        <v>508.3884707949757</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="V42" t="n">
-        <v>274.1372273205766</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="W42" t="n">
-        <v>21.62273565390985</v>
+        <v>694.3284706680727</v>
       </c>
       <c r="X42" t="n">
-        <v>21.62273565390985</v>
+        <v>487.8015720736502</v>
       </c>
       <c r="Y42" t="n">
-        <v>21.62273565390985</v>
+        <v>282.0731362973006</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L43" t="n">
-        <v>58.70925458062905</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M43" t="n">
-        <v>108.4046884975685</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N43" t="n">
-        <v>162.05973796556</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O43" t="n">
-        <v>196.2822639152314</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P43" t="n">
-        <v>202.3430655949284</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.3430655949284</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R43" t="n">
-        <v>202.3430655949284</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S43" t="n">
-        <v>202.3430655949284</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T43" t="n">
-        <v>202.3430655949284</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U43" t="n">
-        <v>202.3430655949284</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54.72024516188256</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C44" t="n">
-        <v>4.015792639752686</v>
+        <v>576.7173427870932</v>
       </c>
       <c r="D44" t="n">
-        <v>4.015792639752686</v>
+        <v>576.7173427870932</v>
       </c>
       <c r="E44" t="n">
-        <v>4.015792639752686</v>
+        <v>299.6629919369897</v>
       </c>
       <c r="F44" t="n">
-        <v>4.015792639752686</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G44" t="n">
-        <v>4.015792639752686</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H44" t="n">
-        <v>4.015792639752686</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I44" t="n">
-        <v>4.015792639752686</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J44" t="n">
-        <v>4.015792639752686</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K44" t="n">
-        <v>53.71122655669217</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L44" t="n">
-        <v>103.4066604736316</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M44" t="n">
-        <v>103.4066604736316</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N44" t="n">
-        <v>103.4066604736316</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O44" t="n">
-        <v>147.0752508385693</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P44" t="n">
-        <v>196.7706847555088</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q44" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R44" t="n">
-        <v>150.0851794655044</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S44" t="n">
-        <v>150.0851794655044</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T44" t="n">
-        <v>150.0851794655044</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U44" t="n">
-        <v>150.0851794655044</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V44" t="n">
-        <v>150.0851794655044</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W44" t="n">
-        <v>150.0851794655044</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X44" t="n">
-        <v>99.38072694337451</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y44" t="n">
-        <v>54.72024516188256</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.015792639752686</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="C45" t="n">
-        <v>4.015792639752686</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D45" t="n">
-        <v>4.015792639752686</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E45" t="n">
-        <v>4.015792639752686</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F45" t="n">
-        <v>4.015792639752686</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G45" t="n">
-        <v>4.015792639752686</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H45" t="n">
-        <v>4.015792639752686</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I45" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J45" t="n">
-        <v>11.40910348623759</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K45" t="n">
-        <v>61.10453740317706</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L45" t="n">
-        <v>110.7999713201165</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M45" t="n">
-        <v>110.7999713201165</v>
+        <v>432.7256329136656</v>
       </c>
       <c r="N45" t="n">
-        <v>110.7999713201165</v>
+        <v>704.266602181852</v>
       </c>
       <c r="O45" t="n">
-        <v>151.0941980706948</v>
+        <v>972.1462211591727</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R45" t="n">
-        <v>200.7896319876343</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S45" t="n">
-        <v>150.0851794655044</v>
+        <v>975.4916784947628</v>
       </c>
       <c r="T45" t="n">
-        <v>150.0851794655044</v>
+        <v>975.4916784947628</v>
       </c>
       <c r="U45" t="n">
-        <v>105.4246976840124</v>
+        <v>975.4916784947628</v>
       </c>
       <c r="V45" t="n">
-        <v>54.72024516188256</v>
+        <v>975.4916784947628</v>
       </c>
       <c r="W45" t="n">
-        <v>4.015792639752686</v>
+        <v>975.4916784947628</v>
       </c>
       <c r="X45" t="n">
-        <v>4.015792639752686</v>
+        <v>975.4916784947628</v>
       </c>
       <c r="Y45" t="n">
-        <v>4.015792639752686</v>
+        <v>975.4916784947628</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.66314946332957</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C46" t="n">
-        <v>28.66314946332957</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D46" t="n">
-        <v>28.66314946332957</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E46" t="n">
-        <v>28.66314946332957</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F46" t="n">
-        <v>28.66314946332957</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G46" t="n">
-        <v>28.66314946332957</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L46" t="n">
-        <v>41.10231156647188</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M46" t="n">
-        <v>90.79774548341136</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N46" t="n">
-        <v>140.4931794003508</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O46" t="n">
-        <v>174.7157053500222</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P46" t="n">
-        <v>180.7765070297192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.0720545075893</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R46" t="n">
-        <v>79.36760198545944</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S46" t="n">
-        <v>28.66314946332957</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T46" t="n">
-        <v>28.66314946332957</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U46" t="n">
-        <v>28.66314946332957</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V46" t="n">
-        <v>28.66314946332957</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W46" t="n">
-        <v>28.66314946332957</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X46" t="n">
-        <v>28.66314946332957</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.66314946332957</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>264.7850127657646</v>
+        <v>262.5353032024727</v>
       </c>
       <c r="L2" t="n">
-        <v>280.0696625926461</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M2" t="n">
-        <v>224.5875773965909</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N2" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O2" t="n">
-        <v>268.4554433734553</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P2" t="n">
-        <v>275.6495788582964</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q2" t="n">
         <v>220.8075902863009</v>
@@ -8055,28 +8057,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>175.0966421419982</v>
+        <v>134.395403</v>
       </c>
       <c r="L3" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>138.5806830739679</v>
+        <v>192.7777027386057</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>180.0654103735793</v>
       </c>
       <c r="O3" t="n">
-        <v>189.2287463302419</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P3" t="n">
-        <v>180.8224552258806</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.6796377307795</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8146,7 +8148,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N4" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O4" t="n">
         <v>169.5633330205178</v>
@@ -8216,22 +8218,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>214.587604768856</v>
+        <v>268.7846244334939</v>
       </c>
       <c r="L5" t="n">
-        <v>229.8722545957376</v>
+        <v>277.8199530293542</v>
       </c>
       <c r="M5" t="n">
-        <v>274.7849853934995</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N5" t="n">
-        <v>273.8751450035847</v>
+        <v>277.8747566713141</v>
       </c>
       <c r="O5" t="n">
-        <v>274.5431641330531</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P5" t="n">
-        <v>269.5618580986986</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q5" t="n">
         <v>220.8075902863009</v>
@@ -8298,22 +8300,22 @@
         <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>175.7917594273756</v>
+        <v>179.6297706236815</v>
       </c>
       <c r="M6" t="n">
-        <v>188.7780910708764</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>178.2555772781585</v>
+        <v>182.2551889458879</v>
       </c>
       <c r="O6" t="n">
-        <v>139.0313383333333</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P6" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.6796377307795</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8383,7 +8385,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N7" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O7" t="n">
         <v>169.5633330205178</v>
@@ -8453,19 +8455,19 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>264.7850127657646</v>
+        <v>268.7846244334939</v>
       </c>
       <c r="L8" t="n">
-        <v>280.0696625926461</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M8" t="n">
-        <v>268.6972646339017</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N8" t="n">
-        <v>223.6777370066762</v>
+        <v>271.6254354402928</v>
       </c>
       <c r="O8" t="n">
-        <v>274.5431641330531</v>
+        <v>278.5427758007825</v>
       </c>
       <c r="P8" t="n">
         <v>225.4521708613878</v>
@@ -8532,25 +8534,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>175.0966421419982</v>
+        <v>188.5924226646379</v>
       </c>
       <c r="L9" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>188.7780910708764</v>
+        <v>183.119933412272</v>
       </c>
       <c r="N9" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>189.2287463302419</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>180.8224552258806</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8620,7 +8622,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N10" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O10" t="n">
         <v>169.5633330205178</v>
@@ -8690,22 +8692,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>258.6972920061668</v>
+        <v>268.7846244334939</v>
       </c>
       <c r="L11" t="n">
-        <v>280.0696625926461</v>
+        <v>277.8199530293542</v>
       </c>
       <c r="M11" t="n">
-        <v>274.7849853934995</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N11" t="n">
-        <v>273.8751450035847</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O11" t="n">
-        <v>224.3457561361446</v>
+        <v>278.5427758007825</v>
       </c>
       <c r="P11" t="n">
-        <v>225.4521708613878</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q11" t="n">
         <v>220.8075902863009</v>
@@ -8766,25 +8768,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>134.395403</v>
+        <v>188.5924226646379</v>
       </c>
       <c r="L12" t="n">
-        <v>135.0905202853774</v>
+        <v>189.2875399500152</v>
       </c>
       <c r="M12" t="n">
-        <v>188.7780910708764</v>
+        <v>183.119933412272</v>
       </c>
       <c r="N12" t="n">
-        <v>178.2555772781585</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O12" t="n">
-        <v>187.2005682293567</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P12" t="n">
-        <v>180.8224552258806</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q12" t="n">
         <v>136.482229733871</v>
@@ -8857,7 +8859,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N13" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O13" t="n">
         <v>169.5633330205178</v>
@@ -8927,22 +8929,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>214.587604768856</v>
+        <v>268.7846244334939</v>
       </c>
       <c r="L14" t="n">
-        <v>229.8722545957376</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M14" t="n">
-        <v>268.6972646339017</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N14" t="n">
-        <v>273.8751450035847</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O14" t="n">
-        <v>274.5431641330531</v>
+        <v>272.2934545697612</v>
       </c>
       <c r="P14" t="n">
-        <v>275.6495788582964</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q14" t="n">
         <v>220.8075902863009</v>
@@ -9009,22 +9011,22 @@
         <v>134.395403</v>
       </c>
       <c r="L15" t="n">
-        <v>185.2879282822859</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M15" t="n">
-        <v>188.7780910708764</v>
+        <v>190.5879241662971</v>
       </c>
       <c r="N15" t="n">
-        <v>176.2273991772734</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O15" t="n">
-        <v>189.2287463302419</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P15" t="n">
-        <v>130.625047228972</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9094,7 +9096,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N16" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O16" t="n">
         <v>169.5633330205178</v>
@@ -9164,22 +9166,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>214.587604768856</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
-        <v>284.0692742603754</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
-        <v>278.7845970612288</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N17" t="n">
-        <v>271.6254354402928</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O17" t="n">
-        <v>278.5427758007825</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P17" t="n">
-        <v>225.4521708613878</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
         <v>220.8075902863009</v>
@@ -9240,28 +9242,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
         <v>134.395403</v>
       </c>
       <c r="L18" t="n">
-        <v>189.2875399500152</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>190.5879241662971</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N18" t="n">
-        <v>182.2551889458879</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O18" t="n">
-        <v>193.2283579979712</v>
+        <v>336.4671998868766</v>
       </c>
       <c r="P18" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9419,7 +9421,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9480,10 +9482,10 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L21" t="n">
-        <v>385.6739591155975</v>
+        <v>193.946264309525</v>
       </c>
       <c r="M21" t="n">
         <v>412.8644904155703</v>
@@ -9492,13 +9494,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O21" t="n">
-        <v>195.818756393795</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9720,7 +9722,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>385.6739591155975</v>
+        <v>253.8740529730059</v>
       </c>
       <c r="M24" t="n">
         <v>412.8644904155703</v>
@@ -9729,13 +9731,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O24" t="n">
-        <v>195.818756393795</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9951,28 +9953,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K27" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>339.7148782546483</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N27" t="n">
-        <v>402.3419766228525</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10191,7 +10193,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
@@ -10203,13 +10205,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O30" t="n">
-        <v>409.6168120477987</v>
+        <v>195.818756393795</v>
       </c>
       <c r="P30" t="n">
-        <v>139.473584579462</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10431,7 +10433,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
-        <v>179.3438942156189</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M33" t="n">
         <v>412.8644904155703</v>
@@ -10440,13 +10442,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O33" t="n">
-        <v>409.6168120477987</v>
+        <v>335.2921033328898</v>
       </c>
       <c r="P33" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10671,16 +10673,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N36" t="n">
-        <v>344.2496456653007</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O36" t="n">
-        <v>409.6168120477987</v>
+        <v>277.816905905207</v>
       </c>
       <c r="P36" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q36" t="n">
         <v>136.482229733871</v>
@@ -10841,7 +10843,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q38" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10899,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10908,10 +10910,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>354.7721594580186</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N39" t="n">
-        <v>128.05816928125</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11075,10 +11077,10 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P41" t="n">
-        <v>322.8933529575607</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11136,25 +11138,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K42" t="n">
         <v>134.395403</v>
       </c>
       <c r="L42" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M42" t="n">
-        <v>408.864878747841</v>
+        <v>397.1900756823312</v>
       </c>
       <c r="N42" t="n">
-        <v>398.3423649551231</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O42" t="n">
-        <v>328.6295770228414</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
         <v>218.4803792452831</v>
@@ -11297,22 +11299,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>264.7850127657646</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>280.0696625926461</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O44" t="n">
-        <v>268.4554433734553</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P44" t="n">
-        <v>275.6495788582964</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
         <v>220.8075902863009</v>
@@ -11373,25 +11375,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K45" t="n">
-        <v>184.5928109969086</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>185.2879282822859</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O45" t="n">
-        <v>179.7325774753315</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>180.8224552258806</v>
+        <v>256.8765706706258</v>
       </c>
       <c r="Q45" t="n">
         <v>136.482229733871</v>
@@ -11464,7 +11466,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N46" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O46" t="n">
         <v>169.5633330205178</v>
@@ -22598,22 +22600,22 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>175.2283822758073</v>
       </c>
       <c r="U2" t="n">
-        <v>207.2638866128674</v>
+        <v>197.2807439119065</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>274.3362018578815</v>
       </c>
       <c r="W2" t="n">
-        <v>300.332709003646</v>
+        <v>296.3330973359167</v>
       </c>
       <c r="X2" t="n">
-        <v>320.6641911342608</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>336.4896637543272</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121.1582486466678</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>120.8281759304924</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
         <v>146.1124235746456</v>
@@ -22635,16 +22637,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>95.76949716293626</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>81.82619054040443</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>56.26549585749488</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>32.30652380083377</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22689,10 +22691,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>154.2642216115697</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>153.4737434216775</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22719,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>117.6921809331995</v>
+        <v>166.3419310002468</v>
       </c>
       <c r="H4" t="n">
-        <v>111.4366640120083</v>
+        <v>107.4370523442789</v>
       </c>
       <c r="I4" t="n">
-        <v>103.5611388004951</v>
+        <v>99.56152713276573</v>
       </c>
       <c r="J4" t="n">
-        <v>64.43796167243782</v>
+        <v>34.64182526314104</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22796,13 +22798,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>414.8547654038309</v>
+        <v>367.7773076177803</v>
       </c>
       <c r="H5" t="n">
-        <v>287.9464953912448</v>
+        <v>283.9468837235155</v>
       </c>
       <c r="I5" t="n">
-        <v>155.0268998712154</v>
+        <v>151.0272882034861</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>98.29622287176242</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
@@ -22850,7 +22852,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>336.4896637543272</v>
+        <v>332.4900520865979</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>111.1751059457069</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
@@ -22878,10 +22880,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>62.72578060151974</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>32.30652380083377</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.48110279741417</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>118.7642059087358</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>148.1851239113601</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>174.4597690702927</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
@@ -22929,7 +22931,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>149.4741317539481</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22956,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>117.6921809331995</v>
+        <v>166.3419310002468</v>
       </c>
       <c r="H7" t="n">
-        <v>111.4366640120083</v>
+        <v>107.4370523442789</v>
       </c>
       <c r="I7" t="n">
-        <v>129.3576635420625</v>
+        <v>99.56152713276573</v>
       </c>
       <c r="J7" t="n">
-        <v>38.64143693087037</v>
+        <v>34.64182526314104</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
-        <v>371.3001655747163</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H8" t="n">
-        <v>287.9464953912448</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>155.0268998712154</v>
+        <v>151.0272882034861</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>87.65380303623918</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>158.7874939374886</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>168.7680975317825</v>
       </c>
       <c r="U8" t="n">
-        <v>201.2803555796359</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -23109,16 +23111,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>93.30882408664073</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>85.82580220813375</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>60.26510752522421</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>42.28966650179463</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23157,16 +23159,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>184.1719961190421</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>195.7923270853622</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>150.2646099438404</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>149.4741317539481</v>
       </c>
     </row>
     <row r="10">
@@ -23191,16 +23193,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8895889301081</v>
+        <v>166.3419310002468</v>
       </c>
       <c r="H10" t="n">
-        <v>152.0075984714091</v>
+        <v>107.4370523442789</v>
       </c>
       <c r="I10" t="n">
-        <v>103.5611388004951</v>
+        <v>99.56152713276573</v>
       </c>
       <c r="J10" t="n">
-        <v>38.64143693087037</v>
+        <v>34.64182526314104</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.56329187893961</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>333.5190019944865</v>
+        <v>335.979675070782</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>312.7880760143047</v>
       </c>
       <c r="D11" t="n">
-        <v>306.4073247576898</v>
+        <v>302.4077130899605</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
@@ -23309,13 +23311,13 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
-        <v>178.7512402327433</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>278.3358135256108</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -23324,7 +23326,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>332.4900520865979</v>
       </c>
     </row>
     <row r="12">
@@ -23334,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>115.1747176134363</v>
+        <v>111.1751059457069</v>
       </c>
       <c r="C12" t="n">
-        <v>120.8281759304924</v>
+        <v>116.8285642627631</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>98.37568865403253</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>93.30882408664073</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
         <v>136.0232102050423</v>
@@ -23385,7 +23387,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>124.7477369419673</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
         <v>198.3825319082687</v>
@@ -23403,7 +23405,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>149.4741317539481</v>
       </c>
     </row>
     <row r="13">
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155.6828082353427</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
-        <v>98.80815851761079</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
         <v>146.9746241731992</v>
@@ -23428,19 +23430,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8895889301081</v>
+        <v>166.3419310002468</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6340720089168</v>
+        <v>107.4370523442789</v>
       </c>
       <c r="I13" t="n">
-        <v>153.7585467974036</v>
+        <v>99.56152713276573</v>
       </c>
       <c r="J13" t="n">
-        <v>88.83884492777894</v>
+        <v>34.64182526314104</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>235.895168890507</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>175.9429519354007</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
         <v>218.7486738677682</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>329.5193903267572</v>
       </c>
       <c r="C14" t="n">
-        <v>316.7876876820341</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>332.9206277583789</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
@@ -23555,13 +23557,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>302.7933820799415</v>
       </c>
       <c r="X14" t="n">
-        <v>326.6477221674924</v>
+        <v>316.6645794665315</v>
       </c>
       <c r="Y14" t="n">
-        <v>336.4896637543272</v>
+        <v>332.4900520865979</v>
       </c>
     </row>
     <row r="15">
@@ -23571,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>111.1751059457069</v>
       </c>
       <c r="C15" t="n">
-        <v>126.811706963724</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>95.91501557773699</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -23625,22 +23627,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T15" t="n">
-        <v>148.1851239113601</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U15" t="n">
-        <v>174.4597690702927</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>202.252611829387</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>150.2646099438404</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>149.4741317539481</v>
       </c>
     </row>
     <row r="16">
@@ -23668,16 +23670,16 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H16" t="n">
-        <v>152.0075984714091</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I16" t="n">
-        <v>103.5611388004951</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
-        <v>38.64143693087037</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.76069987584818</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R16" t="n">
-        <v>173.3911476697823</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S16" t="n">
-        <v>172.159998964514</v>
+        <v>168.1603872967846</v>
       </c>
       <c r="T16" t="n">
-        <v>228.3324659915077</v>
+        <v>212.010398343813</v>
       </c>
       <c r="U16" t="n">
         <v>286.0522703910642</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
@@ -23747,10 +23749,10 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H17" t="n">
-        <v>283.9468837235155</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I17" t="n">
-        <v>151.0272882034861</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J17" t="n">
         <v>0.6592771345624158</v>
@@ -23780,13 +23782,13 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>151.6679320589013</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
-        <v>203.7410286559314</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23795,10 +23797,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>129.272421624686</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>50.59846856447039</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>89.3092124189114</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>81.82619054040443</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>56.26549585749488</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.76680854485863</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>151.0144852835077</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -23938,16 +23940,16 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T19" t="n">
         <v>228.3324659915077</v>
       </c>
       <c r="U19" t="n">
-        <v>231.8552507264263</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V19" t="n">
-        <v>198.7393314023013</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
@@ -23975,13 +23977,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H20" t="n">
         <v>338.1439033881534</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>106.126596917933</v>
+        <v>32.00186300769272</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24063,7 +24065,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>84.83465454228129</v>
       </c>
       <c r="I21" t="n">
         <v>86.50354346547167</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>89.77368600307895</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.170564849075447</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -24193,7 +24195,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.7486738677682</v>
+        <v>39.83554722615986</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
@@ -24218,10 +24220,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>173.2655878973476</v>
       </c>
       <c r="H23" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I23" t="n">
         <v>205.224307868124</v>
@@ -24254,22 +24256,22 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S23" t="n">
-        <v>164.4348476484181</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X23" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -24282,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>96.3930649935855</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
         <v>110.4625155221328</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69497976109122</v>
+        <v>71.14337460264599</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -24412,7 +24414,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S25" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T25" t="n">
         <v>228.3324659915077</v>
@@ -24424,7 +24426,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>115.015555248115</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
@@ -24500,10 +24502,10 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V26" t="n">
-        <v>86.944044016036</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
         <v>96.5777917895669</v>
@@ -24522,7 +24524,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>11.5227711612352</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24582,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>104.1537809005699</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
@@ -24643,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R28" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T28" t="n">
         <v>228.3324659915077</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C29" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
@@ -24689,13 +24691,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H29" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I29" t="n">
         <v>205.224307868124</v>
@@ -24731,10 +24733,10 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
-        <v>232.8537032664814</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24743,10 +24745,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>122.2918504796943</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2768577252153364</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,10 +24824,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>68.03205578034832</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24892,10 +24894,10 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V31" t="n">
-        <v>74.02322442533077</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -24926,19 +24928,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>371.5882709767439</v>
       </c>
       <c r="G32" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H32" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I32" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24971,7 +24973,7 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U32" t="n">
-        <v>9.888586070061081</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -24983,7 +24985,7 @@
         <v>96.5777917895669</v>
       </c>
       <c r="Y32" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -24996,25 +24998,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>32.19143104884003</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>23.97279119369733</v>
       </c>
       <c r="U33" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25087,19 +25089,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>92.58971693411195</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>161.6340720089168</v>
+        <v>150.6105342974165</v>
       </c>
       <c r="I34" t="n">
         <v>153.7585467974036</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
@@ -25172,7 +25174,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I35" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0.6592771345624158</v>
@@ -25202,25 +25204,25 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
-        <v>187.2408914134764</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>149.6247623558566</v>
       </c>
       <c r="W35" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -25242,16 +25244,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25287,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>4.056224626019485</v>
+        <v>67.62958430615521</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25299,7 +25301,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25357,13 +25359,13 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S37" t="n">
         <v>222.3574069614225</v>
       </c>
       <c r="T37" t="n">
-        <v>222.8104870196816</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U37" t="n">
         <v>286.0522703910642</v>
@@ -25372,7 +25374,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25394,19 +25396,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>115.015555248115</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G38" t="n">
-        <v>373.4246613287099</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H38" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I38" t="n">
         <v>205.224307868124</v>
@@ -25442,10 +25444,10 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25457,7 +25459,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25470,25 +25472,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>148.8829366208612</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>15.53789883968815</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -25552,10 +25554,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>117.0670640461102</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
@@ -25603,7 +25605,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U40" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>113.4322143175219</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
@@ -25637,10 +25639,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>285.408742044439</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H41" t="n">
         <v>338.1439033881534</v>
@@ -25649,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>205.8649517235392</v>
@@ -25682,19 +25684,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>90.46690197297184</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>100.5774034572962</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>116.4028760773626</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -25725,7 +25727,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25758,22 +25760,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>24.98049409960245</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>218.5548014525592</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25837,13 +25839,13 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T43" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U43" t="n">
         <v>286.0522703910642</v>
       </c>
       <c r="V43" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C44" t="n">
-        <v>316.7876876820341</v>
+        <v>126.0551953070216</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G44" t="n">
         <v>414.8547654038309</v>
@@ -25886,7 +25888,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>91.65341470396851</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
         <v>205.8649517235392</v>
@@ -25928,10 +25930,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>320.6641911342608</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>342.4731947875588</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>118.7642059087358</v>
+        <v>143.229478303805</v>
       </c>
       <c r="T45" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>180.4433001035242</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
-        <v>181.7113230427466</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>199.7919387530915</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -26038,7 +26040,7 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H46" t="n">
-        <v>137.2331887535757</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I46" t="n">
         <v>153.7585467974036</v>
@@ -26065,13 +26067,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.56329187893961</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R46" t="n">
-        <v>123.1937396728737</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S46" t="n">
-        <v>172.159998964514</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T46" t="n">
         <v>228.3324659915077</v>
@@ -26083,7 +26085,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>360261.3332570289</v>
+        <v>363243.9327397146</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>360261.3332570289</v>
+        <v>363243.9327397146</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>360261.3332570289</v>
+        <v>363243.9327397145</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>360261.3332570289</v>
+        <v>363243.9327397145</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>360261.3332570289</v>
+        <v>363243.9327397146</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>363243.9327397144</v>
+        <v>519599.4691139522</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>519599.4691139523</v>
+        <v>519599.4691139524</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>519599.4691139523</v>
+        <v>519599.4691139524</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>516758.0380848696</v>
+        <v>519599.4691139524</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>360261.3332570291</v>
+        <v>519599.4691139523</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66045.30855802771</v>
+        <v>66591.93348485044</v>
       </c>
       <c r="C2" t="n">
-        <v>66045.3085580277</v>
+        <v>66591.93348485045</v>
       </c>
       <c r="D2" t="n">
-        <v>66045.30855802771</v>
+        <v>66591.93348485045</v>
       </c>
       <c r="E2" t="n">
-        <v>66045.30855802771</v>
+        <v>66591.93348485045</v>
       </c>
       <c r="F2" t="n">
-        <v>66045.30855802768</v>
+        <v>66591.93348485045</v>
       </c>
       <c r="G2" t="n">
-        <v>66591.93348485044</v>
+        <v>95247.41811329292</v>
       </c>
       <c r="H2" t="n">
-        <v>95247.41811329292</v>
+        <v>95247.41811329289</v>
       </c>
       <c r="I2" t="n">
         <v>95247.41811329291</v>
       </c>
       <c r="J2" t="n">
-        <v>95247.41811329295</v>
+        <v>95247.41811329292</v>
       </c>
       <c r="K2" t="n">
-        <v>95247.41811329295</v>
+        <v>95247.41811329289</v>
       </c>
       <c r="L2" t="n">
         <v>95247.41811329294</v>
       </c>
       <c r="M2" t="n">
+        <v>95247.41811329289</v>
+      </c>
+      <c r="N2" t="n">
+        <v>95247.41811329292</v>
+      </c>
+      <c r="O2" t="n">
         <v>95247.41811329291</v>
       </c>
-      <c r="N2" t="n">
-        <v>95247.41811329294</v>
-      </c>
-      <c r="O2" t="n">
-        <v>94726.66531448072</v>
-      </c>
       <c r="P2" t="n">
-        <v>66045.30855802771</v>
+        <v>95247.41811329295</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16822.30596014799</v>
+        <v>18162.66782107245</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1096.233563949593</v>
+        <v>60322.48720044085</v>
       </c>
       <c r="H3" t="n">
-        <v>59381.39609633415</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13133.85061794315</v>
+        <v>14180.32501313452</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>52964.10554124921</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6061.115636010334</v>
+        <v>6114.859912793974</v>
       </c>
       <c r="C4" t="n">
-        <v>6061.115636010334</v>
+        <v>6114.859912793974</v>
       </c>
       <c r="D4" t="n">
-        <v>6061.115636010334</v>
+        <v>6114.859912793974</v>
       </c>
       <c r="E4" t="n">
-        <v>6061.115636010334</v>
+        <v>6114.859912793974</v>
       </c>
       <c r="F4" t="n">
-        <v>6061.115636010334</v>
+        <v>6114.859912793974</v>
       </c>
       <c r="G4" t="n">
-        <v>6114.859912793974</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="H4" t="n">
         <v>8932.273136504818</v>
@@ -26439,25 +26441,25 @@
         <v>8932.273136504818</v>
       </c>
       <c r="J4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
       <c r="K4" t="n">
         <v>8932.273136504818</v>
       </c>
       <c r="L4" t="n">
-        <v>8932.27313650482</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="M4" t="n">
         <v>8932.273136504818</v>
       </c>
       <c r="N4" t="n">
+        <v>8932.27313650482</v>
+      </c>
+      <c r="O4" t="n">
         <v>8932.273136504818</v>
       </c>
-      <c r="O4" t="n">
-        <v>8881.072612741855</v>
-      </c>
       <c r="P4" t="n">
-        <v>6061.115636010334</v>
+        <v>8932.273136504818</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="C5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="D5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="E5" t="n">
-        <v>3052.002406212041</v>
+        <v>3295.178795609984</v>
       </c>
       <c r="F5" t="n">
-        <v>3052.002406212041</v>
+        <v>3295.178795609984</v>
       </c>
       <c r="G5" t="n">
-        <v>3295.178795609984</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="H5" t="n">
         <v>16676.45548636943</v>
@@ -26506,10 +26508,10 @@
         <v>16676.45548636943</v>
       </c>
       <c r="O5" t="n">
-        <v>16433.27909697149</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="P5" t="n">
-        <v>3052.002406212041</v>
+        <v>16676.45548636943</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6482.284555657345</v>
+        <v>5391.626955374028</v>
       </c>
       <c r="C6" t="n">
-        <v>23304.59051580532</v>
+        <v>23554.29477644649</v>
       </c>
       <c r="D6" t="n">
-        <v>23304.59051580534</v>
+        <v>23554.29477644649</v>
       </c>
       <c r="E6" t="n">
-        <v>56932.19051580533</v>
+        <v>57181.8947764465</v>
       </c>
       <c r="F6" t="n">
-        <v>56932.19051580531</v>
+        <v>57181.8947764465</v>
       </c>
       <c r="G6" t="n">
-        <v>56085.66121249688</v>
+        <v>9316.202289977824</v>
       </c>
       <c r="H6" t="n">
-        <v>10257.29339408453</v>
+        <v>69638.68949041865</v>
       </c>
       <c r="I6" t="n">
+        <v>69638.68949041866</v>
+      </c>
+      <c r="J6" t="n">
+        <v>55458.36447728416</v>
+      </c>
+      <c r="K6" t="n">
         <v>69638.68949041865</v>
       </c>
-      <c r="J6" t="n">
-        <v>56504.83887247556</v>
-      </c>
-      <c r="K6" t="n">
-        <v>69638.68949041871</v>
-      </c>
       <c r="L6" t="n">
-        <v>69638.68949041868</v>
+        <v>69638.68949041869</v>
       </c>
       <c r="M6" t="n">
         <v>69638.68949041865</v>
@@ -26558,10 +26560,10 @@
         <v>69638.68949041868</v>
       </c>
       <c r="O6" t="n">
-        <v>69412.31360476738</v>
+        <v>16674.58394916945</v>
       </c>
       <c r="P6" t="n">
-        <v>56932.19051580533</v>
+        <v>69638.68949041871</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="D4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="E4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="F4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="G4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H4" t="n">
         <v>274.2838073416025</v>
@@ -26826,10 +26828,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O4" t="n">
-        <v>270.2841956738732</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="P4" t="n">
-        <v>50.19740799690857</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.999611667729326</v>
+        <v>220.0867876769646</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>54.19701966463789</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>220.0867876769646</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50.19740799690857</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.999611667729326</v>
+        <v>220.0867876769646</v>
       </c>
       <c r="P4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>50.19740799690857</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="L2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.10968723731074</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q2" t="n">
         <v>4.059542658712616</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.70123914199824</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>52.00724109232928</v>
       </c>
       <c r="O3" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O4" t="n">
         <v>34.56820802997106</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="M5" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O5" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>44.10968723731075</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q5" t="n">
         <v>4.059542658712616</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>40.70123914199824</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="M6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N7" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O7" t="n">
         <v>34.56820802997106</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>44.10968723731074</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="O8" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>40.70123914199824</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>50.19740799690857</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O10" t="n">
         <v>34.56820802997106</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.10968723731074</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L11" t="n">
-        <v>50.19740799690857</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="M11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q11" t="n">
         <v>4.059542658712616</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M12" t="n">
-        <v>50.19740799690857</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="N12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>48.16922989602339</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N13" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O13" t="n">
         <v>34.56820802997106</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M14" t="n">
-        <v>44.10968723731074</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>50.19740799690857</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="P14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>4.059542658712616</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>50.19740799690857</v>
+        <v>52.00724109232928</v>
       </c>
       <c r="N15" t="n">
-        <v>48.16922989602339</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N16" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O16" t="n">
         <v>34.56820802997106</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L17" t="n">
-        <v>54.19701966463789</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M17" t="n">
-        <v>54.19701966463789</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N17" t="n">
-        <v>47.94769843361666</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O17" t="n">
-        <v>54.19701966463789</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q17" t="n">
         <v>4.059542658712616</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>54.19701966463789</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
-        <v>52.00724109232928</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N18" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O18" t="n">
-        <v>54.19701966463789</v>
+        <v>197.4358615535434</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,10 +36202,10 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>250.5834388302202</v>
+        <v>58.85574402414761</v>
       </c>
       <c r="M21" t="n">
         <v>274.2838073416025</v>
@@ -36212,13 +36214,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O21" t="n">
-        <v>56.78741806046166</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L24" t="n">
-        <v>250.5834388302202</v>
+        <v>118.7835326876286</v>
       </c>
       <c r="M24" t="n">
         <v>274.2838073416025</v>
@@ -36449,13 +36451,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O24" t="n">
-        <v>56.78741806046166</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L27" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
-        <v>201.1341951806804</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L30" t="n">
         <v>250.5834388302202</v>
@@ -36923,13 +36925,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O30" t="n">
-        <v>270.5854737144654</v>
+        <v>56.78741806046166</v>
       </c>
       <c r="P30" t="n">
-        <v>8.848537350489996</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L33" t="n">
-        <v>44.25337393024155</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>274.2838073416025</v>
@@ -37160,13 +37162,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O33" t="n">
-        <v>270.5854737144654</v>
+        <v>196.2607649995565</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N36" t="n">
-        <v>216.1914763840507</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O36" t="n">
-        <v>270.5854737144654</v>
+        <v>138.7855675718737</v>
       </c>
       <c r="P36" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>140.6484434930818</v>
@@ -37628,10 +37630,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
-        <v>216.1914763840507</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
@@ -37795,10 +37797,10 @@
         <v>171.6864323771106</v>
       </c>
       <c r="P41" t="n">
-        <v>97.44118209617289</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>270.2841956738732</v>
+        <v>258.6093926083634</v>
       </c>
       <c r="N42" t="n">
-        <v>270.2841956738732</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O42" t="n">
-        <v>189.5982386895081</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
         <v>81.99814951141209</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>50.19740799690857</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L44" t="n">
-        <v>50.19740799690857</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O44" t="n">
-        <v>44.10968723731074</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P44" t="n">
-        <v>50.19740799690857</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q44" t="n">
         <v>4.059542658712616</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>50.19740799690857</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L45" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O45" t="n">
-        <v>40.70123914199824</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>50.19740799690857</v>
+        <v>126.2515234416538</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N46" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O46" t="n">
         <v>34.56820802997106</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>370860.9461434676</v>
+        <v>269366.9065556232</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2254375.78040961</v>
+        <v>925407.2786592089</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18836215.56344936</v>
+        <v>17533693.5348838</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5284282.784298905</v>
+        <v>6008192.535444108</v>
       </c>
     </row>
     <row r="11">
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>54.19701966463789</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="W2" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="3">
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>93.04541262614362</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -831,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.547657929861279</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>47.07745778605062</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>54.19701966463789</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="I5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>87.40252184161791</v>
       </c>
       <c r="H6" t="n">
-        <v>47.73673492061303</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.19701966463789</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -1068,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.547657929861279</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>219.4759005688517</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.19701966463789</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>47.07745778605062</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>54.19701966463789</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>7.311291491310435</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>47.73673492061304</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>54.19701966463789</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>54.19701966463789</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.547657929861279</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.73673492061304</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C11" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>47.73673492061303</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>54.19701966463789</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1542,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.547657929861279</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>87.04291592812621</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>142.851249115668</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>54.19701966463789</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>54.19701966463789</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>16.32206764769463</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,23 +1843,23 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C17" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>219.4759005688517</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>114.7736570458744</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
@@ -1940,10 +1940,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>14.20705707857658</v>
       </c>
       <c r="I18" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>99.15242676576018</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>109.8489596931843</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>173.8630887158465</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
         <v>222.9651171964204</v>
@@ -2140,7 +2140,7 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>25.62786097985149</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>53.19226479017359</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>40.77082694055855</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,16 +2332,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="W23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>154.2141932558485</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.55160515844523</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,17 +2554,17 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>18.62406031006297</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X26" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>159.5028127661658</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>160.2871869640073</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2791,17 +2791,17 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>274.2838073416025</v>
+        <v>41.43010407512099</v>
       </c>
       <c r="Y29" t="n">
-        <v>264.3952212715415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>136.4295738281299</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="31">
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>31.93850246840919</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3037,22 +3037,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>109.8489596931843</v>
       </c>
       <c r="F32" t="n">
-        <v>35.70559250379693</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>174.4097407145713</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>205.8210080975798</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>11.02353771150029</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.6226671993474</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
         <v>205.8649517235392</v>
@@ -3325,7 +3325,7 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V35" t="n">
-        <v>178.9084591666628</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>153.4237150659563</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>157.027592761046</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>264.3952212715415</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3647,10 +3647,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>188.9237307687901</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>31.93850246840919</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3751,19 +3751,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>121.8851214361018</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U41" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V41" t="n">
-        <v>274.2838073416025</v>
+        <v>41.43010407512099</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>18.77877848159052</v>
       </c>
       <c r="W42" t="n">
-        <v>31.43454529744082</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="C44" t="n">
-        <v>240.929900371921</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="F44" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>35.0649486483816</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>25.73213560183936</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>51.80398302245153</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L2" t="n">
-        <v>105.459032490443</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M2" t="n">
-        <v>159.1140819584346</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N2" t="n">
-        <v>159.1140819584346</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O2" t="n">
-        <v>159.1140819584346</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P2" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q2" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T2" t="n">
-        <v>168.5691544963162</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U2" t="n">
-        <v>113.8246901886011</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>59.08022588088608</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W2" t="n">
-        <v>4.335761573171031</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X2" t="n">
-        <v>4.335761573171031</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C3" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E3" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F3" t="n">
-        <v>168.5691544963162</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G3" t="n">
-        <v>113.8246901886011</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H3" t="n">
-        <v>59.08022588088608</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I3" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>4.335761573171031</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L3" t="n">
-        <v>4.335761573171031</v>
+        <v>204.9955038364183</v>
       </c>
       <c r="M3" t="n">
-        <v>57.99081104116254</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N3" t="n">
-        <v>109.4779797225685</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O3" t="n">
-        <v>163.1330291905601</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P3" t="n">
-        <v>163.1330291905601</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>216.7880786585516</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>216.7880786585516</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T3" t="n">
-        <v>216.7880786585516</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="U3" t="n">
-        <v>216.7880786585516</v>
+        <v>574.1708973092774</v>
       </c>
       <c r="V3" t="n">
-        <v>216.7880786585516</v>
+        <v>480.1856320303444</v>
       </c>
       <c r="W3" t="n">
-        <v>216.7880786585516</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="X3" t="n">
-        <v>216.7880786585516</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y3" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>215.2247878203079</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>160.4803235125928</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>105.7358592048778</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>50.9913948971627</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
-        <v>36.06774871753305</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>73.15426764425224</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
-        <v>122.8497015611917</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N4" t="n">
-        <v>176.5047510291832</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O4" t="n">
-        <v>210.7272769788546</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P4" t="n">
-        <v>216.7880786585516</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>216.7880786585516</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R4" t="n">
-        <v>216.7880786585516</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S4" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T4" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U4" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V4" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W4" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>162.0436143508365</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C5" t="n">
-        <v>162.0436143508365</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D5" t="n">
-        <v>162.0436143508365</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E5" t="n">
-        <v>162.0436143508365</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="F5" t="n">
-        <v>162.0436143508365</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="G5" t="n">
-        <v>114.4906266881591</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="H5" t="n">
-        <v>59.74616238044408</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I5" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J5" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K5" t="n">
-        <v>57.99081104116254</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L5" t="n">
-        <v>105.459032490443</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M5" t="n">
-        <v>105.459032490443</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N5" t="n">
-        <v>159.1140819584346</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>159.1140819584346</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P5" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y5" t="n">
-        <v>162.0436143508365</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107.2991500431215</v>
+        <v>267.8376091820674</v>
       </c>
       <c r="C6" t="n">
-        <v>107.2991500431215</v>
+        <v>267.8376091820674</v>
       </c>
       <c r="D6" t="n">
-        <v>107.2991500431215</v>
+        <v>267.8376091820674</v>
       </c>
       <c r="E6" t="n">
-        <v>107.2991500431215</v>
+        <v>110.228080184922</v>
       </c>
       <c r="F6" t="n">
-        <v>107.2991500431215</v>
+        <v>110.228080184922</v>
       </c>
       <c r="G6" t="n">
-        <v>107.2991500431215</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H6" t="n">
-        <v>59.08022588088608</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L6" t="n">
-        <v>55.82293025457702</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M6" t="n">
-        <v>55.82293025457702</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N6" t="n">
-        <v>109.4779797225685</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O6" t="n">
-        <v>163.1330291905601</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P6" t="n">
-        <v>163.1330291905601</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>216.7880786585516</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T6" t="n">
-        <v>216.7880786585516</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U6" t="n">
-        <v>216.7880786585516</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="V6" t="n">
-        <v>216.7880786585516</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="W6" t="n">
-        <v>216.7880786585516</v>
+        <v>473.5660449584169</v>
       </c>
       <c r="X6" t="n">
-        <v>216.7880786585516</v>
+        <v>473.5660449584169</v>
       </c>
       <c r="Y6" t="n">
-        <v>162.0436143508365</v>
+        <v>267.8376091820674</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>183.4928006759458</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>74.00387206051573</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L7" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M7" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N7" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O7" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P7" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V7" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.74616238044408</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C8" t="n">
-        <v>59.74616238044408</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D8" t="n">
-        <v>59.74616238044408</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E8" t="n">
-        <v>59.74616238044408</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F8" t="n">
-        <v>59.74616238044408</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G8" t="n">
-        <v>59.74616238044408</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H8" t="n">
-        <v>59.74616238044408</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I8" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J8" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K8" t="n">
-        <v>57.99081104116254</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L8" t="n">
-        <v>57.99081104116254</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M8" t="n">
-        <v>111.6458605091541</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N8" t="n">
-        <v>159.1140819584346</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>212.7691314264261</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>162.0436143508365</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>114.4906266881591</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>59.74616238044408</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U8" t="n">
-        <v>59.74616238044408</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V8" t="n">
-        <v>59.74616238044408</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W8" t="n">
-        <v>59.74616238044408</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="X8" t="n">
-        <v>59.74616238044408</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="Y8" t="n">
-        <v>59.74616238044408</v>
+        <v>520.6898842948577</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.335761573171031</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="C9" t="n">
-        <v>4.335761573171031</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="D9" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E9" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F9" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G9" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H9" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I9" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>65.38412188764744</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>65.38412188764744</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>109.4779797225685</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N9" t="n">
-        <v>109.4779797225685</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O9" t="n">
-        <v>109.4779797225685</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P9" t="n">
-        <v>163.1330291905601</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>216.7880786585516</v>
+        <v>1089.750086445894</v>
       </c>
       <c r="U9" t="n">
-        <v>216.7880786585516</v>
+        <v>862.8236449638728</v>
       </c>
       <c r="V9" t="n">
-        <v>168.5691544963162</v>
+        <v>628.5724014894736</v>
       </c>
       <c r="W9" t="n">
-        <v>113.8246901886011</v>
+        <v>376.0579098228068</v>
       </c>
       <c r="X9" t="n">
-        <v>59.08022588088608</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.335761573171031</v>
+        <v>169.5310112283843</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C10" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>183.4928006759458</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>74.00387206051573</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N10" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O10" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P10" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>185.0560915141895</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S10" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T10" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U10" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V10" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W10" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X10" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y10" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>113.8246901886011</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="C11" t="n">
-        <v>59.08022588088608</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="D11" t="n">
-        <v>4.335761573171031</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="E11" t="n">
-        <v>4.335761573171031</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="F11" t="n">
-        <v>4.335761573171031</v>
+        <v>122.688517522284</v>
       </c>
       <c r="G11" t="n">
-        <v>4.335761573171031</v>
+        <v>122.688517522284</v>
       </c>
       <c r="H11" t="n">
-        <v>4.335761573171031</v>
+        <v>122.688517522284</v>
       </c>
       <c r="I11" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J11" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K11" t="n">
-        <v>57.99081104116254</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L11" t="n">
-        <v>105.459032490443</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M11" t="n">
-        <v>105.459032490443</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N11" t="n">
-        <v>105.459032490443</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O11" t="n">
-        <v>159.1140819584346</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P11" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S11" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T11" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U11" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V11" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W11" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X11" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="Y11" t="n">
-        <v>162.0436143508365</v>
+        <v>676.7972192224911</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107.2991500431215</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C12" t="n">
-        <v>52.55468573540642</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J12" t="n">
-        <v>11.72907241965593</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K12" t="n">
-        <v>65.38412188764744</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L12" t="n">
-        <v>119.039171355639</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1330291905601</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N12" t="n">
-        <v>163.1330291905601</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O12" t="n">
-        <v>163.1330291905601</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P12" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q12" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R12" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S12" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T12" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U12" t="n">
-        <v>216.7880786585516</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V12" t="n">
-        <v>216.7880786585516</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W12" t="n">
-        <v>216.7880786585516</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X12" t="n">
-        <v>216.7880786585516</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y12" t="n">
-        <v>162.0436143508365</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G13" t="n">
-        <v>183.4928006759458</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H13" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I13" t="n">
-        <v>74.00387206051573</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J13" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L13" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M13" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N13" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O13" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.335761573171031</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="C14" t="n">
-        <v>4.335761573171031</v>
+        <v>386.9191927385693</v>
       </c>
       <c r="D14" t="n">
-        <v>4.335761573171031</v>
+        <v>386.9191927385693</v>
       </c>
       <c r="E14" t="n">
-        <v>4.335761573171031</v>
+        <v>386.9191927385693</v>
       </c>
       <c r="F14" t="n">
-        <v>4.335761573171031</v>
+        <v>386.9191927385693</v>
       </c>
       <c r="G14" t="n">
-        <v>4.335761573171031</v>
+        <v>109.8648418884658</v>
       </c>
       <c r="H14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K14" t="n">
-        <v>57.99081104116254</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L14" t="n">
-        <v>111.6458605091541</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M14" t="n">
-        <v>165.3009099771456</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N14" t="n">
-        <v>165.3009099771456</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O14" t="n">
-        <v>212.7691314264261</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P14" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R14" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S14" t="n">
-        <v>216.7880786585516</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T14" t="n">
-        <v>216.7880786585516</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U14" t="n">
-        <v>216.7880786585516</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="V14" t="n">
-        <v>216.7880786585516</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="W14" t="n">
-        <v>168.5691544963162</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="X14" t="n">
-        <v>113.8246901886011</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="Y14" t="n">
-        <v>59.08022588088608</v>
+        <v>663.9735435886729</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.335761573171031</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="C15" t="n">
-        <v>4.335761573171031</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="D15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J15" t="n">
-        <v>4.335761573171031</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K15" t="n">
-        <v>4.335761573171031</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L15" t="n">
-        <v>4.335761573171031</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M15" t="n">
-        <v>55.82293025457702</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N15" t="n">
-        <v>55.82293025457702</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O15" t="n">
-        <v>109.4779797225685</v>
+        <v>1088.375177389425</v>
       </c>
       <c r="P15" t="n">
-        <v>163.1330291905601</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q15" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R15" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S15" t="n">
-        <v>216.7880786585516</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T15" t="n">
-        <v>216.7880786585516</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U15" t="n">
-        <v>216.7880786585516</v>
+        <v>581.7863455991563</v>
       </c>
       <c r="V15" t="n">
-        <v>216.7880786585516</v>
+        <v>581.7863455991563</v>
       </c>
       <c r="W15" t="n">
-        <v>168.5691544963162</v>
+        <v>581.7863455991563</v>
       </c>
       <c r="X15" t="n">
-        <v>113.8246901886011</v>
+        <v>375.2594470047338</v>
       </c>
       <c r="Y15" t="n">
-        <v>59.08022588088608</v>
+        <v>169.5310112283843</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L16" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M16" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N16" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O16" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R16" t="n">
-        <v>75.56716289875945</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S16" t="n">
-        <v>20.8226985910444</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T16" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>298.9970554374318</v>
       </c>
       <c r="C17" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D17" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E17" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F17" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G17" t="n">
         <v>21.9427045873282</v>
@@ -5539,28 +5539,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S17" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="V17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="W17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X17" t="n">
-        <v>853.1057571376389</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y17" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>981.2022424513852</v>
+        <v>318.6462393016395</v>
       </c>
       <c r="C18" t="n">
-        <v>808.4491273732024</v>
+        <v>318.6462393016395</v>
       </c>
       <c r="D18" t="n">
-        <v>660.8608207321463</v>
+        <v>318.6462393016395</v>
       </c>
       <c r="E18" t="n">
-        <v>503.251291735001</v>
+        <v>318.6462393016395</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2955017516178</v>
+        <v>173.6904493182564</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8983197263226</v>
+        <v>36.2932672929611</v>
       </c>
       <c r="H18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I18" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K18" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L18" t="n">
-        <v>277.4136198757311</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M18" t="n">
-        <v>548.9545891439176</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N18" t="n">
-        <v>820.4955584121041</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P18" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q18" t="n">
         <v>1097.13522936641</v>
@@ -5621,25 +5621,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S18" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T18" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="U18" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="V18" t="n">
-        <v>1097.13522936641</v>
+        <v>692.2156890176225</v>
       </c>
       <c r="W18" t="n">
-        <v>1097.13522936641</v>
+        <v>692.2156890176225</v>
       </c>
       <c r="X18" t="n">
-        <v>1097.13522936641</v>
+        <v>485.6887904232</v>
       </c>
       <c r="Y18" t="n">
-        <v>1097.13522936641</v>
+        <v>485.6887904232</v>
       </c>
     </row>
     <row r="19">
@@ -5694,19 +5694,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="S19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V19" t="n">
         <v>21.9427045873282</v>
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.94270458732819</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="C20" t="n">
-        <v>21.94270458732819</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="D20" t="n">
-        <v>21.94270458732819</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="E20" t="n">
-        <v>21.94270458732819</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="F20" t="n">
-        <v>21.94270458732819</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="G20" t="n">
-        <v>21.94270458732819</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H20" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I20" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J20" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K20" t="n">
         <v>143.241092649432</v>
@@ -5776,28 +5776,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R20" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S20" t="n">
-        <v>778.2322885414366</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T20" t="n">
-        <v>553.0149984440422</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U20" t="n">
-        <v>298.9970554374318</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="V20" t="n">
-        <v>21.94270458732819</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="W20" t="n">
-        <v>21.94270458732819</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="X20" t="n">
-        <v>21.94270458732819</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.94270458732819</v>
+        <v>409.9556005820623</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>205.4389618469498</v>
+        <v>637.2908373290077</v>
       </c>
       <c r="C21" t="n">
-        <v>205.4389618469498</v>
+        <v>464.5377222508249</v>
       </c>
       <c r="D21" t="n">
-        <v>205.4389618469498</v>
+        <v>316.9494156097688</v>
       </c>
       <c r="E21" t="n">
-        <v>47.82943284980445</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="F21" t="n">
-        <v>47.82943284980445</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G21" t="n">
-        <v>47.82943284980445</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H21" t="n">
         <v>21.9427045873282</v>
@@ -5831,16 +5831,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K21" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L21" t="n">
-        <v>87.60320201771924</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M21" t="n">
-        <v>359.1441712859057</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N21" t="n">
         <v>630.6851405540922</v>
@@ -5858,25 +5858,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S21" t="n">
-        <v>1097.13522936641</v>
+        <v>1043.405668972295</v>
       </c>
       <c r="T21" t="n">
-        <v>1097.13522936641</v>
+        <v>843.0192731053572</v>
       </c>
       <c r="U21" t="n">
-        <v>870.2087878843885</v>
+        <v>843.0192731053572</v>
       </c>
       <c r="V21" t="n">
-        <v>870.2087878843885</v>
+        <v>843.0192731053572</v>
       </c>
       <c r="W21" t="n">
-        <v>617.6942962177218</v>
+        <v>843.0192731053572</v>
       </c>
       <c r="X21" t="n">
-        <v>411.1673976232993</v>
+        <v>843.0192731053572</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.4389618469498</v>
+        <v>637.2908373290077</v>
       </c>
     </row>
     <row r="22">
@@ -5949,10 +5949,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y22" t="n">
         <v>21.9427045873282</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>543.0265276662028</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="C23" t="n">
-        <v>543.0265276662028</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D23" t="n">
-        <v>543.0265276662028</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E23" t="n">
-        <v>543.0265276662028</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F23" t="n">
-        <v>543.0265276662028</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G23" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H23" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I23" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J23" t="n">
         <v>21.9427045873282</v>
@@ -5995,19 +5995,19 @@
         <v>143.241092649432</v>
       </c>
       <c r="L23" t="n">
-        <v>345.6915471007956</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1689795623911</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003606</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813537</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P23" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q23" t="n">
         <v>1097.13522936641</v>
@@ -6019,22 +6019,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T23" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U23" t="n">
-        <v>1097.13522936641</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V23" t="n">
-        <v>820.0808785163064</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="W23" t="n">
-        <v>543.0265276662028</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="X23" t="n">
-        <v>543.0265276662028</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="Y23" t="n">
-        <v>543.0265276662028</v>
+        <v>340.8456454123015</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.9427045873282</v>
+        <v>177.7146169669732</v>
       </c>
       <c r="C24" t="n">
-        <v>21.9427045873282</v>
+        <v>177.7146169669732</v>
       </c>
       <c r="D24" t="n">
-        <v>21.9427045873282</v>
+        <v>177.7146169669732</v>
       </c>
       <c r="E24" t="n">
         <v>21.9427045873282</v>
@@ -6068,22 +6068,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J24" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K24" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L24" t="n">
-        <v>286.1736718527163</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M24" t="n">
-        <v>557.7146411209028</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N24" t="n">
-        <v>829.2556103890893</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O24" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P24" t="n">
         <v>1097.13522936641</v>
@@ -6092,28 +6092,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R24" t="n">
-        <v>1073.345729206364</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S24" t="n">
-        <v>902.6774323319759</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T24" t="n">
-        <v>902.6774323319759</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U24" t="n">
-        <v>675.7509908499544</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V24" t="n">
-        <v>441.4997473755553</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W24" t="n">
-        <v>188.9852557088886</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X24" t="n">
-        <v>188.9852557088886</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.9852557088886</v>
+        <v>177.7146169669732</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F25" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="G25" t="n">
         <v>21.9427045873282</v>
@@ -6186,13 +6186,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>265.9721768160992</v>
+        <v>317.8092375688085</v>
       </c>
       <c r="C26" t="n">
-        <v>265.9721768160992</v>
+        <v>317.8092375688085</v>
       </c>
       <c r="D26" t="n">
-        <v>21.94270458732819</v>
+        <v>317.8092375688085</v>
       </c>
       <c r="E26" t="n">
-        <v>21.94270458732819</v>
+        <v>40.75488671870494</v>
       </c>
       <c r="F26" t="n">
-        <v>21.94270458732819</v>
+        <v>40.75488671870494</v>
       </c>
       <c r="G26" t="n">
-        <v>21.94270458732819</v>
+        <v>40.75488671870494</v>
       </c>
       <c r="H26" t="n">
-        <v>21.94270458732819</v>
+        <v>40.75488671870494</v>
       </c>
       <c r="I26" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J26" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K26" t="n">
         <v>143.241092649432</v>
@@ -6256,22 +6256,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T26" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U26" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V26" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="W26" t="n">
-        <v>1097.13522936641</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="X26" t="n">
-        <v>820.0808785163064</v>
+        <v>317.8092375688085</v>
       </c>
       <c r="Y26" t="n">
-        <v>543.0265276662028</v>
+        <v>317.8092375688085</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>183.0566568763846</v>
+        <v>352.3053486626563</v>
       </c>
       <c r="C27" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="D27" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E27" t="n">
         <v>21.9427045873282</v>
@@ -6305,22 +6305,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K27" t="n">
-        <v>161.1846636454791</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L27" t="n">
-        <v>409.2622680873972</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M27" t="n">
-        <v>409.2622680873972</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N27" t="n">
-        <v>630.6851405540922</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O27" t="n">
-        <v>898.564759531413</v>
+        <v>1088.375177389425</v>
       </c>
       <c r="P27" t="n">
         <v>1097.13522936641</v>
@@ -6332,25 +6332,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S27" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T27" t="n">
-        <v>896.7488334994719</v>
+        <v>764.5606830334284</v>
       </c>
       <c r="U27" t="n">
-        <v>669.8223920174504</v>
+        <v>764.5606830334284</v>
       </c>
       <c r="V27" t="n">
-        <v>435.5711485430513</v>
+        <v>764.5606830334284</v>
       </c>
       <c r="W27" t="n">
-        <v>183.0566568763846</v>
+        <v>764.5606830334284</v>
       </c>
       <c r="X27" t="n">
-        <v>183.0566568763846</v>
+        <v>558.0337844390059</v>
       </c>
       <c r="Y27" t="n">
-        <v>183.0566568763846</v>
+        <v>352.3053486626563</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E28" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F28" t="n">
         <v>21.9427045873282</v>
@@ -6411,25 +6411,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C29" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D29" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E29" t="n">
         <v>21.9427045873282</v>
@@ -6493,19 +6493,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T29" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U29" t="n">
-        <v>843.1172863597994</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V29" t="n">
-        <v>843.1172863597994</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="W29" t="n">
-        <v>843.1172863597994</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="X29" t="n">
-        <v>566.0629355096959</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y29" t="n">
         <v>298.9970554374318</v>
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>352.3053486626563</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C30" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D30" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E30" t="n">
         <v>21.9427045873282</v>
@@ -6542,19 +6542,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J30" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K30" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L30" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M30" t="n">
-        <v>688.1965482020685</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N30" t="n">
-        <v>959.7375174702549</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O30" t="n">
         <v>1015.957061350112</v>
@@ -6575,19 +6575,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U30" t="n">
-        <v>1097.13522936641</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8839858920107</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8839858920107</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X30" t="n">
-        <v>725.0763355605663</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y30" t="n">
-        <v>519.3478997842168</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D31" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="E31" t="n">
         <v>21.9427045873282</v>
@@ -6654,19 +6654,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>543.0265276662028</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="C32" t="n">
-        <v>543.0265276662028</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="D32" t="n">
-        <v>543.0265276662028</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="E32" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F32" t="n">
-        <v>506.9602726118625</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G32" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H32" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I32" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J32" t="n">
         <v>21.9427045873282</v>
@@ -6727,25 +6727,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S32" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T32" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U32" t="n">
-        <v>1097.13522936641</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="V32" t="n">
-        <v>1097.13522936641</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="W32" t="n">
-        <v>820.0808785163064</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="X32" t="n">
-        <v>543.0265276662028</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="Y32" t="n">
-        <v>543.0265276662028</v>
+        <v>409.9556005820623</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J33" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K33" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1846636454791</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M33" t="n">
-        <v>432.7256329136656</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N33" t="n">
-        <v>704.266602181852</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O33" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P33" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
@@ -6809,16 +6809,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T33" t="n">
-        <v>920.9637740991661</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U33" t="n">
-        <v>920.9637740991661</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V33" t="n">
-        <v>686.7125306247669</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W33" t="n">
-        <v>434.1980389581003</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="X33" t="n">
         <v>227.6711403636777</v>
@@ -6843,13 +6843,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="E34" t="n">
-        <v>202.6630345283467</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G34" t="n">
-        <v>33.07759116460122</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H34" t="n">
         <v>21.9427045873282</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>229.2399852622009</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="C35" t="n">
-        <v>229.2399852622009</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="D35" t="n">
-        <v>229.2399852622009</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="E35" t="n">
-        <v>229.2399852622009</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="F35" t="n">
-        <v>229.2399852622009</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="G35" t="n">
-        <v>229.2399852622009</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H35" t="n">
-        <v>229.2399852622009</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J35" t="n">
         <v>21.9427045873282</v>
@@ -6961,28 +6961,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S35" t="n">
-        <v>889.1908336860672</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T35" t="n">
-        <v>663.9735435886729</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U35" t="n">
-        <v>409.9556005820623</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V35" t="n">
-        <v>229.2399852622009</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="W35" t="n">
-        <v>229.2399852622009</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="X35" t="n">
-        <v>229.2399852622009</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="Y35" t="n">
-        <v>229.2399852622009</v>
+        <v>266.6719412882472</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>194.695819665511</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C36" t="n">
         <v>21.9427045873282</v>
@@ -7016,25 +7016,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K36" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L36" t="n">
-        <v>416.655578933882</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M36" t="n">
-        <v>688.1965482020685</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N36" t="n">
-        <v>959.7375174702549</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O36" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P36" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q36" t="n">
         <v>1097.13522936641</v>
@@ -7043,25 +7043,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S36" t="n">
-        <v>926.4669324920217</v>
+        <v>942.1617798048379</v>
       </c>
       <c r="T36" t="n">
-        <v>726.0805366250836</v>
+        <v>942.1617798048379</v>
       </c>
       <c r="U36" t="n">
-        <v>567.466806563421</v>
+        <v>715.2353383228165</v>
       </c>
       <c r="V36" t="n">
-        <v>567.466806563421</v>
+        <v>480.9840948484174</v>
       </c>
       <c r="W36" t="n">
-        <v>567.466806563421</v>
+        <v>228.4696031817507</v>
       </c>
       <c r="X36" t="n">
-        <v>567.466806563421</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y36" t="n">
-        <v>361.7383707870715</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L37" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M37" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N37" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O37" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U37" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V37" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C38" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D38" t="n">
-        <v>853.1057571376389</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E38" t="n">
         <v>576.0514062875353</v>
       </c>
       <c r="F38" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="G38" t="n">
         <v>298.9970554374318</v>
-      </c>
-      <c r="G38" t="n">
-        <v>21.9427045873282</v>
       </c>
       <c r="H38" t="n">
         <v>21.9427045873282</v>
@@ -7207,19 +7207,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U38" t="n">
-        <v>1097.13522936641</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="V38" t="n">
-        <v>1097.13522936641</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="W38" t="n">
-        <v>1097.13522936641</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="X38" t="n">
-        <v>1097.13522936641</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="Y38" t="n">
-        <v>1097.13522936641</v>
+        <v>843.1172863597994</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J39" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K39" t="n">
-        <v>161.1846636454791</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L39" t="n">
-        <v>409.2622680873972</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M39" t="n">
-        <v>409.2622680873972</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N39" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O39" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P39" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q39" t="n">
         <v>1097.13522936641</v>
@@ -7280,22 +7280,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T39" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U39" t="n">
-        <v>699.5404910100002</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V39" t="n">
-        <v>465.2892475356011</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W39" t="n">
-        <v>212.7747558689344</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X39" t="n">
-        <v>21.9427045873282</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y39" t="n">
         <v>21.9427045873282</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D40" t="n">
-        <v>170.401920923893</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E40" t="n">
         <v>21.9427045873282</v>
@@ -7371,13 +7371,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.7792762158805</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C41" t="n">
-        <v>422.7792762158805</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D41" t="n">
-        <v>422.7792762158805</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E41" t="n">
-        <v>422.7792762158805</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F41" t="n">
-        <v>299.6629919369897</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="G41" t="n">
-        <v>22.60864108688619</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H41" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I41" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J41" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K41" t="n">
         <v>143.241092649432</v>
@@ -7435,28 +7435,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R41" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S41" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T41" t="n">
-        <v>953.8515700725947</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U41" t="n">
-        <v>699.833627065984</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V41" t="n">
-        <v>422.7792762158805</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W41" t="n">
-        <v>422.7792762158805</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X41" t="n">
-        <v>422.7792762158805</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y41" t="n">
-        <v>422.7792762158805</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>282.0731362973006</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C42" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D42" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E42" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F42" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G42" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H42" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I42" t="n">
         <v>21.9427045873282</v>
@@ -7496,19 +7496,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L42" t="n">
-        <v>21.9427045873282</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M42" t="n">
-        <v>277.9660032696079</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N42" t="n">
-        <v>549.5069725377944</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O42" t="n">
-        <v>817.386591515115</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P42" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q42" t="n">
         <v>1097.13522936641</v>
@@ -7523,19 +7523,19 @@
         <v>726.0805366250836</v>
       </c>
       <c r="U42" t="n">
-        <v>726.0805366250836</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="V42" t="n">
-        <v>726.0805366250836</v>
+        <v>480.1856320303444</v>
       </c>
       <c r="W42" t="n">
-        <v>694.3284706680727</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="X42" t="n">
-        <v>487.8015720736502</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y42" t="n">
-        <v>282.0731362973006</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="43">
@@ -7599,7 +7599,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U43" t="n">
         <v>21.9427045873282</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.0808785163064</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="C44" t="n">
-        <v>576.7173427870932</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D44" t="n">
-        <v>576.7173427870932</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="E44" t="n">
-        <v>299.6629919369897</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="F44" t="n">
-        <v>22.60864108688619</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G44" t="n">
         <v>22.60864108688619</v>
@@ -7648,22 +7648,22 @@
         <v>22.60864108688619</v>
       </c>
       <c r="J44" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K44" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L44" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N44" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P44" t="n">
         <v>1093.116282134284</v>
@@ -7675,25 +7675,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S44" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T44" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="U44" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="V44" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="W44" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="X44" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="Y44" t="n">
-        <v>1097.13522936641</v>
+        <v>299.6629919369898</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C45" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D45" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E45" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G45" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H45" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I45" t="n">
         <v>21.9427045873282</v>
@@ -7730,19 +7730,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K45" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L45" t="n">
-        <v>161.1846636454791</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M45" t="n">
-        <v>432.7256329136656</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N45" t="n">
-        <v>704.266602181852</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O45" t="n">
-        <v>972.1462211591727</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P45" t="n">
         <v>1097.13522936641</v>
@@ -7751,28 +7751,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R45" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S45" t="n">
-        <v>975.4916784947628</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T45" t="n">
-        <v>975.4916784947628</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U45" t="n">
-        <v>975.4916784947628</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V45" t="n">
-        <v>975.4916784947628</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W45" t="n">
-        <v>975.4916784947628</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X45" t="n">
-        <v>975.4916784947628</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y45" t="n">
-        <v>975.4916784947628</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="46">
@@ -7981,22 +7981,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>262.5353032024727</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L2" t="n">
-        <v>284.0692742603754</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M2" t="n">
-        <v>278.7845970612288</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N2" t="n">
-        <v>223.6777370066762</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O2" t="n">
-        <v>224.3457561361446</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P2" t="n">
-        <v>279.6491905260257</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
         <v>220.8075902863009</v>
@@ -8060,25 +8060,25 @@
         <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>179.3438942156189</v>
       </c>
       <c r="M3" t="n">
-        <v>192.7777027386057</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>180.0654103735793</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>193.2283579979712</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>190.6792493985089</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8218,22 +8218,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>268.7846244334939</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L5" t="n">
-        <v>277.8199530293542</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M5" t="n">
-        <v>224.5875773965909</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N5" t="n">
-        <v>277.8747566713141</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O5" t="n">
-        <v>224.3457561361446</v>
+        <v>396.0321885132551</v>
       </c>
       <c r="P5" t="n">
-        <v>279.6491905260257</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
         <v>220.8075902863009</v>
@@ -8300,22 +8300,22 @@
         <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>179.6297706236815</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>182.2551889458879</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>193.2283579979712</v>
+        <v>217.8891172417261</v>
       </c>
       <c r="P6" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>190.6792493985089</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8455,22 +8455,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>268.7846244334939</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L8" t="n">
-        <v>229.8722545957376</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M8" t="n">
-        <v>278.7845970612288</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N8" t="n">
-        <v>271.6254354402928</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O8" t="n">
-        <v>278.5427758007825</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P8" t="n">
-        <v>225.4521708613878</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q8" t="n">
         <v>220.8075902863009</v>
@@ -8534,25 +8534,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5924226646379</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>183.119933412272</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>195.818756393795</v>
       </c>
       <c r="P9" t="n">
-        <v>184.8220668936099</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
-        <v>190.6792493985089</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8692,22 +8692,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>268.7846244334939</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
-        <v>277.8199530293542</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M11" t="n">
-        <v>224.5875773965909</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N11" t="n">
-        <v>223.6777370066762</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O11" t="n">
-        <v>278.5427758007825</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P11" t="n">
-        <v>279.6491905260257</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
         <v>220.8075902863009</v>
@@ -8768,25 +8768,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K12" t="n">
-        <v>188.5924226646379</v>
+        <v>134.395403</v>
       </c>
       <c r="L12" t="n">
-        <v>189.2875399500152</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>183.119933412272</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N12" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O12" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>184.8220668936099</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
         <v>136.482229733871</v>
@@ -8929,22 +8929,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>268.7846244334939</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L14" t="n">
-        <v>284.0692742603754</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
-        <v>278.7845970612288</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N14" t="n">
-        <v>223.6777370066762</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O14" t="n">
-        <v>272.2934545697612</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P14" t="n">
-        <v>225.4521708613878</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
         <v>220.8075902863009</v>
@@ -9005,28 +9005,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>134.395403</v>
       </c>
       <c r="L15" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>190.5879241662971</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N15" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O15" t="n">
-        <v>193.2283579979712</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>184.8220668936099</v>
+        <v>139.473584579462</v>
       </c>
       <c r="Q15" t="n">
-        <v>190.6792493985089</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9184,7 +9184,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K18" t="n">
         <v>134.395403</v>
@@ -9251,19 +9251,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>412.8644904155703</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N18" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O18" t="n">
-        <v>336.4671998868766</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,19 +9479,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>193.946264309525</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N21" t="n">
-        <v>402.3419766228525</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9716,25 +9716,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>253.8740529730059</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N24" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
         <v>136.482229733871</v>
@@ -9953,25 +9953,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N27" t="n">
-        <v>351.7176364193258</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>331.2012793855346</v>
+        <v>139.473584579462</v>
       </c>
       <c r="Q27" t="n">
         <v>136.482229733871</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10199,13 +10199,13 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>412.8644904155703</v>
+        <v>206.5344255155917</v>
       </c>
       <c r="N30" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O30" t="n">
-        <v>195.818756393795</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
         <v>130.625047228972</v>
@@ -10369,7 +10369,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q32" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10427,28 +10427,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N33" t="n">
-        <v>402.3419766228525</v>
+        <v>258.5531625267515</v>
       </c>
       <c r="O33" t="n">
-        <v>335.2921033328898</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,28 +10664,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M36" t="n">
-        <v>412.8644904155703</v>
+        <v>256.5416321892494</v>
       </c>
       <c r="N36" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O36" t="n">
-        <v>277.816905905207</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10901,19 +10901,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N39" t="n">
-        <v>351.7176364193258</v>
+        <v>128.6161323053679</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11080,7 +11080,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11144,10 +11144,10 @@
         <v>134.395403</v>
       </c>
       <c r="L42" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>397.1900756823312</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N42" t="n">
         <v>402.3419766228525</v>
@@ -11156,10 +11156,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>331.2012793855346</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11378,10 +11378,10 @@
         <v>123.666686</v>
       </c>
       <c r="K45" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
         <v>412.8644904155703</v>
@@ -11393,7 +11393,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>256.8765706706258</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q45" t="n">
         <v>136.482229733871</v>
@@ -22600,22 +22600,22 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>175.2283822758073</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>197.2807439119065</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>274.3362018578815</v>
+        <v>86.944044016036</v>
       </c>
       <c r="W2" t="n">
-        <v>296.3330973359167</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X2" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="3">
@@ -22637,16 +22637,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>95.76949716293626</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>81.82619054040443</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>56.26549585749488</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>32.30652380083377</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>138.8633184135115</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3419310002468</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>107.4370523442789</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>99.56152713276573</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>34.64182526314104</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>222.3574069614225</v>
+        <v>216.8354279895965</v>
       </c>
       <c r="T4" t="n">
         <v>228.3324659915077</v>
@@ -22786,28 +22786,28 @@
         <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D5" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E5" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F5" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>367.7773076177803</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H5" t="n">
-        <v>283.9468837235155</v>
+        <v>96.55472588167004</v>
       </c>
       <c r="I5" t="n">
-        <v>151.0272882034861</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>332.4900520865979</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.1751059457069</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
@@ -22871,19 +22871,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>48.62068836342441</v>
       </c>
       <c r="H6" t="n">
-        <v>62.72578060151974</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>32.30652380083377</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,10 +22913,10 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>224.6571770672012</v>
@@ -22925,13 +22925,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.4741317539481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3419310002468</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H7" t="n">
-        <v>107.4370523442789</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>99.56152713276573</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>34.64182526314104</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>164.2405094225433</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -23029,7 +23029,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F8" t="n">
         <v>407.2938634805408</v>
@@ -23041,10 +23041,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>151.0272882034861</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>87.65380303623918</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7874939374886</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>168.7680975317825</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -23105,7 +23105,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
@@ -23153,22 +23153,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>191.0712404169582</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>184.1719961190421</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>195.7923270853622</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>150.2646099438404</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>149.4741317539481</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3419310002468</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
-        <v>107.4370523442789</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>99.56152713276573</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>34.64182526314104</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>222.3574069614225</v>
+        <v>216.8354279895965</v>
       </c>
       <c r="T10" t="n">
         <v>228.3324659915077</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.979675070782</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C11" t="n">
-        <v>312.7880760143047</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>302.4077130899605</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G11" t="n">
         <v>414.8547654038309</v>
@@ -23278,7 +23278,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>105.4859530625178</v>
       </c>
       <c r="J11" t="n">
         <v>0.6592771345624158</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>205.8649517235392</v>
@@ -23326,7 +23326,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>332.4900520865979</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>111.1751059457069</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>116.8285642627631</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>98.37568865403253</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
@@ -23393,19 +23393,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>149.4741317539481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3419310002468</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H13" t="n">
-        <v>107.4370523442789</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I13" t="n">
-        <v>99.56152713276573</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J13" t="n">
-        <v>34.64182526314104</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>329.5193903267572</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D14" t="n">
         <v>356.6047327545984</v>
@@ -23509,10 +23509,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H14" t="n">
-        <v>338.1439033881534</v>
+        <v>251.1009874600272</v>
       </c>
       <c r="I14" t="n">
         <v>205.224307868124</v>
@@ -23545,10 +23545,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.4777635765444</v>
@@ -23557,13 +23557,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>302.7933820799415</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>316.6645794665315</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>332.4900520865979</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>111.1751059457069</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -23624,25 +23624,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6571770672012</v>
+        <v>81.80592795153325</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>202.252611829387</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>150.2646099438404</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>149.4741317539481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.56368021121028</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>119.1941280051444</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S16" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T16" t="n">
-        <v>212.010398343813</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
@@ -23746,7 +23746,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H17" t="n">
         <v>338.1439033881534</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4777635765444</v>
+        <v>32.00186300769272</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23797,10 +23797,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>129.272421624686</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50.59846856447039</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>96.25545844355619</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>198.3825319082687</v>
@@ -23870,13 +23870,13 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>173.3911476697823</v>
+        <v>74.23872090402212</v>
       </c>
       <c r="S19" t="n">
         <v>222.3574069614225</v>
@@ -23949,7 +23949,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V19" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
@@ -23983,10 +23983,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8547654038309</v>
+        <v>305.0058057106467</v>
       </c>
       <c r="H20" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I20" t="n">
         <v>205.224307868124</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
-        <v>32.00186300769272</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -24050,10 +24050,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24062,10 +24062,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>84.83465454228129</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
         <v>86.50354346547167</v>
@@ -24098,22 +24098,22 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
-        <v>168.9616139056444</v>
+        <v>115.7693491154708</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>39.83554722615986</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>326.2142687383841</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
@@ -24220,16 +24220,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>173.2655878973476</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H23" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I23" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>54.24941418091686</v>
       </c>
       <c r="W23" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
@@ -24293,7 +24293,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>1.8192404513253</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>71.14337460264599</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
         <v>198.3825319082687</v>
@@ -24353,7 +24353,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24375,10 +24375,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>135.1354836983042</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>161.6340720089168</v>
@@ -24426,7 +24426,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>115.015555248115</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
@@ -24463,7 +24463,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I26" t="n">
-        <v>205.224307868124</v>
+        <v>186.600247558061</v>
       </c>
       <c r="J26" t="n">
         <v>0.6592771345624158</v>
@@ -24496,7 +24496,7 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.4777635765444</v>
@@ -24505,13 +24505,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X26" t="n">
         <v>96.5777917895669</v>
       </c>
       <c r="Y26" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24524,13 +24524,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>11.5227711612352</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
@@ -24572,25 +24572,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>38.09534494426134</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24609,10 +24609,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>114.2205189413953</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.8895889301081</v>
@@ -24651,7 +24651,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
         <v>228.3324659915077</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
@@ -24688,7 +24688,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
@@ -24733,22 +24733,22 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>96.5777917895669</v>
+        <v>329.4314950560484</v>
       </c>
       <c r="Y29" t="n">
-        <v>122.2918504796943</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
@@ -24815,19 +24815,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>68.03205578034832</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="31">
@@ -24843,10 +24843,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>117.0670640461102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
@@ -24894,7 +24894,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U31" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24925,22 +24925,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>273.2690760621032</v>
       </c>
       <c r="F32" t="n">
-        <v>371.5882709767439</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H32" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -25049,19 +25049,19 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
-        <v>23.97279119369733</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>44.16833865242023</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>114.2205189413953</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H34" t="n">
-        <v>150.6105342974165</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I34" t="n">
         <v>153.7585467974036</v>
@@ -25168,16 +25168,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>414.8547654038309</v>
+        <v>173.2320982044835</v>
       </c>
       <c r="H35" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>149.6247623558566</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -25283,25 +25283,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>15.5378988396881</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>67.62958430615521</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -25368,13 +25368,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>107.1794502458071</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>119.3211887198536</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>115.015555248115</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H38" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I38" t="n">
         <v>205.224307868124</v>
@@ -25447,7 +25447,7 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25520,13 +25520,13 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>15.53789883968815</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25554,10 +25554,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0670640461102</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
@@ -25611,7 +25611,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25639,19 +25639,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>285.408742044439</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H41" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I41" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>54.24941418091686</v>
+        <v>287.1031174473983</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
@@ -25709,7 +25709,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -25727,7 +25727,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,16 +25763,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>213.1299525580646</v>
       </c>
       <c r="W42" t="n">
-        <v>218.5548014525592</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T43" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>126.0551953070216</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H44" t="n">
         <v>338.1439033881534</v>
@@ -25915,10 +25915,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>187.9001685480387</v>
       </c>
       <c r="U44" t="n">
         <v>251.4777635765444</v>
@@ -25930,10 +25930,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
-        <v>143.229478303805</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>363243.9327397146</v>
+        <v>519599.4691139524</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>363243.9327397146</v>
+        <v>519599.4691139524</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>363243.9327397145</v>
+        <v>519599.4691139523</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363243.9327397145</v>
+        <v>519599.4691139524</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363243.9327397146</v>
+        <v>519599.4691139522</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>519599.4691139522</v>
+        <v>519599.4691139524</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>519599.4691139524</v>
+        <v>519599.4691139523</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>519599.4691139523</v>
+        <v>519599.4691139524</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>519599.4691139524</v>
+        <v>519599.4691139523</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>519599.4691139524</v>
+        <v>519599.4691139522</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519599.4691139523</v>
+        <v>519599.4691139524</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66591.93348485044</v>
+        <v>95247.41811329292</v>
       </c>
       <c r="C2" t="n">
-        <v>66591.93348485045</v>
+        <v>95247.41811329294</v>
       </c>
       <c r="D2" t="n">
-        <v>66591.93348485045</v>
+        <v>95247.41811329291</v>
       </c>
       <c r="E2" t="n">
-        <v>66591.93348485045</v>
+        <v>95247.41811329292</v>
       </c>
       <c r="F2" t="n">
-        <v>66591.93348485045</v>
+        <v>95247.41811329295</v>
       </c>
       <c r="G2" t="n">
         <v>95247.41811329292</v>
       </c>
       <c r="H2" t="n">
+        <v>95247.41811329291</v>
+      </c>
+      <c r="I2" t="n">
         <v>95247.41811329289</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>95247.41811329294</v>
+      </c>
+      <c r="K2" t="n">
         <v>95247.41811329291</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>95247.41811329292</v>
       </c>
-      <c r="K2" t="n">
-        <v>95247.41811329289</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>95247.41811329292</v>
+      </c>
+      <c r="N2" t="n">
         <v>95247.41811329294</v>
       </c>
-      <c r="M2" t="n">
-        <v>95247.41811329289</v>
-      </c>
-      <c r="N2" t="n">
-        <v>95247.41811329292</v>
-      </c>
       <c r="O2" t="n">
-        <v>95247.41811329291</v>
+        <v>95247.41811329294</v>
       </c>
       <c r="P2" t="n">
-        <v>95247.41811329295</v>
+        <v>95247.41811329297</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18162.66782107245</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>60322.48720044085</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14180.32501313452</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>52964.10554124921</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6114.859912793974</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="C4" t="n">
-        <v>6114.859912793974</v>
+        <v>8932.273136504817</v>
       </c>
       <c r="D4" t="n">
-        <v>6114.859912793974</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="E4" t="n">
-        <v>6114.859912793974</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="F4" t="n">
-        <v>6114.859912793974</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="G4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
       <c r="H4" t="n">
         <v>8932.273136504818</v>
@@ -26441,25 +26441,25 @@
         <v>8932.273136504818</v>
       </c>
       <c r="J4" t="n">
-        <v>8932.27313650482</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="K4" t="n">
         <v>8932.273136504818</v>
       </c>
       <c r="L4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
       <c r="M4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
       <c r="N4" t="n">
         <v>8932.27313650482</v>
       </c>
       <c r="O4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
       <c r="P4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36922.77879560999</v>
+        <v>50304.05548636943</v>
       </c>
       <c r="C5" t="n">
-        <v>36922.77879560999</v>
+        <v>50304.05548636943</v>
       </c>
       <c r="D5" t="n">
-        <v>36922.77879560999</v>
+        <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>3295.178795609984</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="F5" t="n">
-        <v>3295.178795609984</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="G5" t="n">
         <v>16676.45548636943</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5391.626955374028</v>
+        <v>-67596.85190057704</v>
       </c>
       <c r="C6" t="n">
-        <v>23554.29477644649</v>
+        <v>24321.96046716281</v>
       </c>
       <c r="D6" t="n">
-        <v>23554.29477644649</v>
+        <v>24321.96046716278</v>
       </c>
       <c r="E6" t="n">
-        <v>57181.8947764465</v>
+        <v>57949.5604671628</v>
       </c>
       <c r="F6" t="n">
-        <v>57181.8947764465</v>
+        <v>57949.56046716282</v>
       </c>
       <c r="G6" t="n">
-        <v>9316.202289977824</v>
+        <v>57949.5604671628</v>
       </c>
       <c r="H6" t="n">
-        <v>69638.68949041865</v>
+        <v>57949.56046716277</v>
       </c>
       <c r="I6" t="n">
-        <v>69638.68949041866</v>
+        <v>57949.56046716277</v>
       </c>
       <c r="J6" t="n">
-        <v>55458.36447728416</v>
+        <v>-13815.15202092343</v>
       </c>
       <c r="K6" t="n">
-        <v>69638.68949041865</v>
+        <v>57949.56046716277</v>
       </c>
       <c r="L6" t="n">
-        <v>69638.68949041869</v>
+        <v>57949.5604671628</v>
       </c>
       <c r="M6" t="n">
-        <v>69638.68949041865</v>
+        <v>57949.5604671628</v>
       </c>
       <c r="N6" t="n">
-        <v>69638.68949041868</v>
+        <v>57949.5604671628</v>
       </c>
       <c r="O6" t="n">
-        <v>16674.58394916945</v>
+        <v>57949.5604671628</v>
       </c>
       <c r="P6" t="n">
-        <v>69638.68949041871</v>
+        <v>57949.56046716282</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G4" t="n">
         <v>274.2838073416025</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.94769843361666</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L2" t="n">
-        <v>54.19701966463789</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M2" t="n">
-        <v>54.19701966463789</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P2" t="n">
-        <v>54.19701966463789</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
         <v>4.059542658712616</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>44.25337393024155</v>
       </c>
       <c r="M3" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>52.00724109232928</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>54.19701966463789</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.19701966463789</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>54.19701966463789</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L5" t="n">
-        <v>47.94769843361666</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N5" t="n">
-        <v>54.19701966463789</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>171.6864323771105</v>
       </c>
       <c r="P5" t="n">
-        <v>54.19701966463789</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
         <v>4.059542658712616</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>44.53925033830414</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>54.19701966463789</v>
+        <v>78.85777890839283</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>54.19701966463789</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M8" t="n">
-        <v>54.19701966463789</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N8" t="n">
-        <v>47.94769843361666</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O8" t="n">
-        <v>54.19701966463789</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q8" t="n">
         <v>4.059542658712616</v>
@@ -35254,25 +35254,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>54.19701966463789</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>44.53925033830414</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>56.78741806046166</v>
       </c>
       <c r="P9" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.19701966463789</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>54.19701966463789</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L11" t="n">
-        <v>47.94769843361666</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O11" t="n">
-        <v>54.19701966463789</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P11" t="n">
-        <v>54.19701966463789</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q11" t="n">
         <v>4.059542658712616</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>54.19701966463789</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M12" t="n">
-        <v>44.53925033830414</v>
+        <v>90.02410328955504</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P12" t="n">
-        <v>54.19701966463789</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>54.19701966463789</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L14" t="n">
-        <v>54.19701966463789</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M14" t="n">
-        <v>54.19701966463789</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O14" t="n">
-        <v>47.94769843361666</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q14" t="n">
         <v>4.059542658712616</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M15" t="n">
-        <v>52.00724109232928</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O15" t="n">
-        <v>54.19701966463789</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P15" t="n">
-        <v>54.19701966463789</v>
+        <v>8.848537350489996</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2838073416025</v>
+        <v>90.02410328955504</v>
       </c>
       <c r="N18" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O18" t="n">
-        <v>197.4358615535434</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L21" t="n">
-        <v>58.85574402414761</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L24" t="n">
-        <v>118.7835326876286</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N27" t="n">
-        <v>223.6594671380758</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P27" t="n">
-        <v>200.5762321565626</v>
+        <v>8.848537350489996</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>140.6484434930818</v>
@@ -36919,13 +36919,13 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2838073416025</v>
+        <v>67.95374244162382</v>
       </c>
       <c r="N30" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O30" t="n">
-        <v>56.78741806046166</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K33" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2838073416025</v>
+        <v>130.4949932455015</v>
       </c>
       <c r="O33" t="n">
-        <v>196.2607649995565</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L36" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2838073416025</v>
+        <v>117.9609491152816</v>
       </c>
       <c r="N36" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O36" t="n">
-        <v>138.7855675718737</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K39" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N39" t="n">
-        <v>223.6594671380758</v>
+        <v>0.5579630241179461</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
@@ -37642,7 +37642,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
-        <v>258.6093926083634</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N42" t="n">
         <v>274.2838073416025</v>
@@ -37876,10 +37876,10 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
-        <v>200.5762321565626</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
         <v>274.2838073416025</v>
@@ -38113,7 +38113,7 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>126.2515234416538</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
